--- a/Grid_5x5/Solutions/Solution_NDP_S057/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S057/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2727,7 +2727,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.6892964285714283</v>
+        <v>1.6892964285714287</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8714,7 +8714,7 @@
         <v>70</v>
       </c>
       <c r="K11" s="72">
-        <v>90.607000000000014</v>
+        <v>90.606999999999999</v>
       </c>
       <c r="L11" s="72">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72">
-        <v>90.607000000000014</v>
+        <v>90.606999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8758,16 +8758,16 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>38.895000000000003</v>
+        <v>38.894999999999996</v>
       </c>
       <c r="L12" s="72">
-        <v>30.958999999999996</v>
+        <v>30.959000000000017</v>
       </c>
       <c r="M12" s="72">
         <v>59.648000000000003</v>
       </c>
       <c r="N12" s="72">
-        <v>69.853999999999999</v>
+        <v>69.854000000000013</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8849,13 +8849,13 @@
         <v>18.936999999999998</v>
       </c>
       <c r="L14" s="72">
-        <v>25.954999999999998</v>
+        <v>25.955000000000013</v>
       </c>
       <c r="M14" s="72">
         <v>25.68</v>
       </c>
       <c r="N14" s="72">
-        <v>44.891999999999996</v>
+        <v>44.89200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -10009,13 +10009,13 @@
         <v>41.676000000000002</v>
       </c>
       <c r="L42" s="72">
-        <v>27.265999999999991</v>
+        <v>27.266000000000005</v>
       </c>
       <c r="M42" s="72">
         <v>4.3789999999999996</v>
       </c>
       <c r="N42" s="72">
-        <v>68.941999999999993</v>
+        <v>68.942000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
         <v>24.475000000000001</v>
       </c>
       <c r="N43" s="72">
-        <v>58.206000000000003</v>
+        <v>58.205999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -10094,16 +10094,16 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>61.373999999999995</v>
+        <v>61.374000000000002</v>
       </c>
       <c r="L44" s="72">
-        <v>12.420999999999992</v>
+        <v>12.420999999999999</v>
       </c>
       <c r="M44" s="72">
-        <v>45.785000000000004</v>
+        <v>45.784999999999997</v>
       </c>
       <c r="N44" s="72">
-        <v>73.794999999999987</v>
+        <v>73.795000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="72">
-        <v>73.794999999999987</v>
+        <v>73.795000000000002</v>
       </c>
       <c r="N45" s="72">
         <v>0</v>
@@ -11216,7 +11216,7 @@
         <v>67.387</v>
       </c>
       <c r="M71" s="72">
-        <v>20.228000000000002</v>
+        <v>20.227999999999998</v>
       </c>
       <c r="N71" s="72">
         <v>83.796999999999997</v>
@@ -12150,7 +12150,7 @@
         <v>70</v>
       </c>
       <c r="K94" s="72">
-        <v>121.62800000000001</v>
+        <v>121.62799999999999</v>
       </c>
       <c r="L94" s="72">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="72">
-        <v>121.62800000000001</v>
+        <v>121.62799999999999</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -12194,16 +12194,16 @@
         <v>70</v>
       </c>
       <c r="K95" s="72">
-        <v>17.833000000000002</v>
+        <v>17.832999999999998</v>
       </c>
       <c r="L95" s="72">
-        <v>16.838000000000005</v>
+        <v>16.838000000000001</v>
       </c>
       <c r="M95" s="72">
         <v>104.79</v>
       </c>
       <c r="N95" s="72">
-        <v>34.671000000000006</v>
+        <v>34.670999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -12238,10 +12238,10 @@
         <v>70</v>
       </c>
       <c r="K96" s="72">
-        <v>31.366000000000003</v>
+        <v>31.366</v>
       </c>
       <c r="L96" s="72">
-        <v>19.002999999999997</v>
+        <v>19.003</v>
       </c>
       <c r="M96" s="72">
         <v>15.668000000000001</v>
@@ -13574,16 +13574,16 @@
         <v>70</v>
       </c>
       <c r="K128" s="72">
-        <v>5.6289999999999996</v>
+        <v>5.6290000000000004</v>
       </c>
       <c r="L128" s="72">
-        <v>56.952999999999989</v>
+        <v>56.953000000000003</v>
       </c>
       <c r="M128" s="72">
         <v>20.302</v>
       </c>
       <c r="N128" s="72">
-        <v>62.581999999999987</v>
+        <v>62.582000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -13621,13 +13621,13 @@
         <v>75.802999999999997</v>
       </c>
       <c r="L129" s="72">
-        <v>27.396000000000015</v>
+        <v>27.396000000000001</v>
       </c>
       <c r="M129" s="72">
-        <v>35.186</v>
+        <v>35.186000000000007</v>
       </c>
       <c r="N129" s="72">
-        <v>103.19900000000001</v>
+        <v>103.199</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -13738,7 +13738,7 @@
         <v>70</v>
       </c>
       <c r="K132" s="72">
-        <v>96.503999999999991</v>
+        <v>96.504000000000019</v>
       </c>
       <c r="L132" s="72">
         <v>0</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="N132" s="72">
-        <v>96.503999999999991</v>
+        <v>96.504000000000019</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -13788,7 +13788,7 @@
         <v>79.697999999999979</v>
       </c>
       <c r="M133" s="72">
-        <v>16.806000000000004</v>
+        <v>16.805999999999997</v>
       </c>
       <c r="N133" s="72">
         <v>145.92599999999999</v>
@@ -13876,7 +13876,7 @@
         <v>43.469999999999992</v>
       </c>
       <c r="M135" s="72">
-        <v>15.637999999999998</v>
+        <v>15.638</v>
       </c>
       <c r="N135" s="72">
         <v>59.051999999999992</v>
@@ -13914,13 +13914,13 @@
         <v>70</v>
       </c>
       <c r="K136" s="72">
-        <v>3.6670000000000003</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="L136" s="72">
         <v>40.432000000000002</v>
       </c>
       <c r="M136" s="72">
-        <v>18.62</v>
+        <v>18.619999999999997</v>
       </c>
       <c r="N136" s="72">
         <v>44.099000000000004</v>
@@ -13964,7 +13964,7 @@
         <v>32.053000000000004</v>
       </c>
       <c r="M137" s="72">
-        <v>12.045999999999998</v>
+        <v>12.045999999999999</v>
       </c>
       <c r="N137" s="72">
         <v>35.673000000000002</v>
@@ -14005,13 +14005,13 @@
         <v>35.185000000000002</v>
       </c>
       <c r="L138" s="72">
-        <v>12.366999999999997</v>
+        <v>12.367000000000004</v>
       </c>
       <c r="M138" s="72">
         <v>23.306000000000001</v>
       </c>
       <c r="N138" s="72">
-        <v>47.552</v>
+        <v>47.552000000000007</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -14122,7 +14122,7 @@
         <v>70</v>
       </c>
       <c r="K141" s="72">
-        <v>67.319999999999993</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="L141" s="72">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="72">
-        <v>67.319999999999993</v>
+        <v>67.320000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -14169,13 +14169,13 @@
         <v>78.388000000000005</v>
       </c>
       <c r="L142" s="72">
-        <v>59.506999999999977</v>
+        <v>59.507000000000005</v>
       </c>
       <c r="M142" s="72">
         <v>7.8130000000000006</v>
       </c>
       <c r="N142" s="72">
-        <v>137.89499999999998</v>
+        <v>137.89500000000001</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -14301,13 +14301,13 @@
         <v>12.829000000000001</v>
       </c>
       <c r="L145" s="72">
-        <v>48.015000000000008</v>
+        <v>48.015000000000001</v>
       </c>
       <c r="M145" s="72">
-        <v>17.690999999999999</v>
+        <v>17.691000000000003</v>
       </c>
       <c r="N145" s="72">
-        <v>60.844000000000008</v>
+        <v>60.844000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -18006,13 +18006,13 @@
         <v>70</v>
       </c>
       <c r="K232" s="72">
-        <v>42.796000000000006</v>
+        <v>42.795999999999999</v>
       </c>
       <c r="L232" s="72">
-        <v>17.132999999999996</v>
+        <v>17.133000000000003</v>
       </c>
       <c r="M232" s="72">
-        <v>14.170999999999999</v>
+        <v>14.171000000000001</v>
       </c>
       <c r="N232" s="72">
         <v>59.929000000000002</v>
@@ -18053,13 +18053,13 @@
         <v>119.96300000000002</v>
       </c>
       <c r="L233" s="72">
-        <v>40.270999999999958</v>
+        <v>40.270999999999987</v>
       </c>
       <c r="M233" s="72">
         <v>19.658000000000001</v>
       </c>
       <c r="N233" s="72">
-        <v>160.23399999999998</v>
+        <v>160.23400000000001</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -18141,13 +18141,13 @@
         <v>45.596000000000004</v>
       </c>
       <c r="L235" s="72">
-        <v>175.63900000000001</v>
+        <v>175.63899999999998</v>
       </c>
       <c r="M235" s="72">
         <v>8.0150000000000006</v>
       </c>
       <c r="N235" s="72">
-        <v>221.23500000000001</v>
+        <v>221.23499999999999</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -18188,7 +18188,7 @@
         <v>159.32500000000002</v>
       </c>
       <c r="M236" s="72">
-        <v>61.910000000000011</v>
+        <v>61.91</v>
       </c>
       <c r="N236" s="72">
         <v>185.39100000000002</v>
@@ -18226,16 +18226,16 @@
         <v>70</v>
       </c>
       <c r="K237" s="72">
-        <v>20.633000000000003</v>
+        <v>20.632999999999999</v>
       </c>
       <c r="L237" s="72">
-        <v>42.917000000000002</v>
+        <v>42.917000000000016</v>
       </c>
       <c r="M237" s="72">
         <v>142.47399999999999</v>
       </c>
       <c r="N237" s="72">
-        <v>63.550000000000004</v>
+        <v>63.550000000000011</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -18346,7 +18346,7 @@
         <v>70</v>
       </c>
       <c r="K240" s="72">
-        <v>32.023000000000003</v>
+        <v>32.022999999999996</v>
       </c>
       <c r="L240" s="72">
         <v>0</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="N240" s="72">
-        <v>32.023000000000003</v>
+        <v>32.022999999999996</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -18393,13 +18393,13 @@
         <v>38.828999999999994</v>
       </c>
       <c r="L241" s="72">
-        <v>14.903999999999996</v>
+        <v>14.904000000000011</v>
       </c>
       <c r="M241" s="72">
         <v>17.119</v>
       </c>
       <c r="N241" s="72">
-        <v>53.73299999999999</v>
+        <v>53.733000000000004</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -21670,7 +21670,7 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>17.923000000000002</v>
+        <v>17.922999999999998</v>
       </c>
       <c r="L318" s="72">
         <v>0</v>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="N318" s="72">
-        <v>17.923000000000002</v>
+        <v>17.922999999999998</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -21758,16 +21758,16 @@
         <v>70</v>
       </c>
       <c r="K320" s="72">
-        <v>31.35</v>
+        <v>31.349999999999998</v>
       </c>
       <c r="L320" s="72">
-        <v>24.830000000000005</v>
+        <v>24.829999999999995</v>
       </c>
       <c r="M320" s="72">
         <v>28.478000000000002</v>
       </c>
       <c r="N320" s="72">
-        <v>56.180000000000007</v>
+        <v>56.179999999999993</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
@@ -21808,7 +21808,7 @@
         <v>38.867000000000004</v>
       </c>
       <c r="M321" s="72">
-        <v>17.313000000000002</v>
+        <v>17.312999999999999</v>
       </c>
       <c r="N321" s="72">
         <v>102.27500000000001</v>
@@ -21849,13 +21849,13 @@
         <v>55.89</v>
       </c>
       <c r="L322" s="72">
-        <v>54.522999999999982</v>
+        <v>54.522999999999996</v>
       </c>
       <c r="M322" s="72">
         <v>47.752000000000002</v>
       </c>
       <c r="N322" s="72">
-        <v>110.41299999999998</v>
+        <v>110.413</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="M323" s="72">
-        <v>110.41299999999998</v>
+        <v>110.413</v>
       </c>
       <c r="N323" s="72">
         <v>0</v>
@@ -23065,13 +23065,13 @@
         <v>25.317</v>
       </c>
       <c r="L351" s="72">
-        <v>105.392</v>
+        <v>105.39200000000002</v>
       </c>
       <c r="M351" s="72">
-        <v>48.913999999999994</v>
+        <v>48.914000000000001</v>
       </c>
       <c r="N351" s="72">
-        <v>130.709</v>
+        <v>130.70900000000003</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -23229,13 +23229,13 @@
         <v>36.141999999999996</v>
       </c>
       <c r="L355" s="72">
-        <v>91.745999999999995</v>
+        <v>91.746000000000009</v>
       </c>
       <c r="M355" s="72">
         <v>13.132</v>
       </c>
       <c r="N355" s="72">
-        <v>127.88799999999999</v>
+        <v>127.88800000000001</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23270,10 +23270,10 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>52.032999999999994</v>
+        <v>52.033000000000001</v>
       </c>
       <c r="L356" s="72">
-        <v>83.361000000000018</v>
+        <v>83.361000000000004</v>
       </c>
       <c r="M356" s="72">
         <v>44.527000000000001</v>
@@ -24785,13 +24785,13 @@
         <v>31.002000000000002</v>
       </c>
       <c r="L392" s="72">
-        <v>53.321999999999981</v>
+        <v>53.32200000000001</v>
       </c>
       <c r="M392" s="72">
         <v>91.016999999999996</v>
       </c>
       <c r="N392" s="72">
-        <v>84.323999999999984</v>
+        <v>84.324000000000012</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
@@ -24826,10 +24826,10 @@
         <v>70</v>
       </c>
       <c r="K393" s="72">
-        <v>18.509999999999998</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="L393" s="72">
-        <v>31.330000000000005</v>
+        <v>31.330000000000002</v>
       </c>
       <c r="M393" s="72">
         <v>52.994</v>
@@ -24870,7 +24870,7 @@
         <v>70</v>
       </c>
       <c r="K394" s="72">
-        <v>85.306000000000012</v>
+        <v>85.305999999999997</v>
       </c>
       <c r="L394" s="72">
         <v>29.650999999999996</v>
@@ -24879,7 +24879,7 @@
         <v>20.189</v>
       </c>
       <c r="N394" s="72">
-        <v>114.95700000000001</v>
+        <v>114.95699999999999</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="M395" s="72">
-        <v>114.95700000000001</v>
+        <v>114.95699999999999</v>
       </c>
       <c r="N395" s="72">
         <v>0</v>
@@ -26250,13 +26250,13 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>58.943999999999996</v>
+        <v>58.944000000000003</v>
       </c>
       <c r="L427" s="72">
-        <v>55.173999999999999</v>
+        <v>55.173999999999992</v>
       </c>
       <c r="M427" s="72">
-        <v>18.171999999999997</v>
+        <v>18.172000000000001</v>
       </c>
       <c r="N427" s="72">
         <v>114.11799999999999</v>
@@ -26300,7 +26300,7 @@
         <v>88.397999999999968</v>
       </c>
       <c r="M428" s="72">
-        <v>25.720000000000002</v>
+        <v>25.72</v>
       </c>
       <c r="N428" s="72">
         <v>249.19499999999999</v>
@@ -26341,13 +26341,13 @@
         <v>66.06</v>
       </c>
       <c r="L429" s="72">
-        <v>24.422999999999988</v>
+        <v>24.423000000000002</v>
       </c>
       <c r="M429" s="72">
         <v>224.77199999999999</v>
       </c>
       <c r="N429" s="72">
-        <v>90.48299999999999</v>
+        <v>90.483000000000004</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
@@ -26388,7 +26388,7 @@
         <v>64.728000000000009</v>
       </c>
       <c r="M430" s="72">
-        <v>25.754999999999999</v>
+        <v>25.755000000000003</v>
       </c>
       <c r="N430" s="72">
         <v>73.496000000000009</v>
@@ -27554,13 +27554,13 @@
         <v>70</v>
       </c>
       <c r="K458" s="72">
-        <v>73.926999999999992</v>
+        <v>73.927000000000007</v>
       </c>
       <c r="L458" s="72">
-        <v>44.585000000000008</v>
+        <v>44.584999999999994</v>
       </c>
       <c r="M458" s="72">
-        <v>37.433</v>
+        <v>37.433000000000007</v>
       </c>
       <c r="N458" s="72">
         <v>118.512</v>
@@ -27718,7 +27718,7 @@
         <v>70</v>
       </c>
       <c r="K462" s="72">
-        <v>73.59899999999999</v>
+        <v>73.599000000000018</v>
       </c>
       <c r="L462" s="72">
         <v>0</v>
@@ -27727,7 +27727,7 @@
         <v>0</v>
       </c>
       <c r="N462" s="72">
-        <v>73.59899999999999</v>
+        <v>73.599000000000018</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
@@ -29230,7 +29230,7 @@
         <v>70</v>
       </c>
       <c r="K498" s="72">
-        <v>112.42099999999999</v>
+        <v>112.42100000000001</v>
       </c>
       <c r="L498" s="72">
         <v>0</v>
@@ -29239,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="N498" s="72">
-        <v>112.42099999999999</v>
+        <v>112.42100000000001</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
@@ -29321,13 +29321,13 @@
         <v>59.271000000000001</v>
       </c>
       <c r="L500" s="72">
-        <v>38.066000000000017</v>
+        <v>38.065999999999988</v>
       </c>
       <c r="M500" s="72">
         <v>28.215</v>
       </c>
       <c r="N500" s="72">
-        <v>97.337000000000018</v>
+        <v>97.336999999999989</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.25">
@@ -29365,13 +29365,13 @@
         <v>14.123000000000001</v>
       </c>
       <c r="L501" s="72">
-        <v>62.980999999999995</v>
+        <v>62.981000000000009</v>
       </c>
       <c r="M501" s="72">
         <v>34.356000000000002</v>
       </c>
       <c r="N501" s="72">
-        <v>77.103999999999999</v>
+        <v>77.104000000000013</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
@@ -29412,7 +29412,7 @@
         <v>33.202999999999996</v>
       </c>
       <c r="M502" s="72">
-        <v>43.90100000000001</v>
+        <v>43.900999999999996</v>
       </c>
       <c r="N502" s="72">
         <v>41.832999999999998</v>
@@ -30669,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="M532" s="72">
-        <v>78.199999999999989</v>
+        <v>78.2</v>
       </c>
       <c r="N532" s="72">
         <v>0</v>
@@ -30786,10 +30786,10 @@
         <v>70</v>
       </c>
       <c r="K535" s="72">
-        <v>41.222000000000001</v>
+        <v>41.221999999999994</v>
       </c>
       <c r="L535" s="72">
-        <v>53.345999999999997</v>
+        <v>53.346000000000004</v>
       </c>
       <c r="M535" s="72">
         <v>15.807000000000002</v>
@@ -30833,13 +30833,13 @@
         <v>10.061</v>
       </c>
       <c r="L536" s="72">
-        <v>52.178000000000004</v>
+        <v>52.177999999999997</v>
       </c>
       <c r="M536" s="72">
         <v>42.39</v>
       </c>
       <c r="N536" s="72">
-        <v>62.239000000000004</v>
+        <v>62.238999999999997</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
@@ -31946,7 +31946,7 @@
         <v>70</v>
       </c>
       <c r="K563" s="72">
-        <v>79.355000000000018</v>
+        <v>79.355000000000004</v>
       </c>
       <c r="L563" s="72">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="N563" s="72">
-        <v>79.355000000000018</v>
+        <v>79.355000000000004</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.25">
@@ -31993,13 +31993,13 @@
         <v>45.368000000000002</v>
       </c>
       <c r="L564" s="72">
-        <v>40.6</v>
+        <v>40.599999999999987</v>
       </c>
       <c r="M564" s="72">
         <v>38.755000000000003</v>
       </c>
       <c r="N564" s="72">
-        <v>85.968000000000004</v>
+        <v>85.967999999999989</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -32037,13 +32037,13 @@
         <v>24.274999999999999</v>
       </c>
       <c r="L565" s="72">
-        <v>47.520000000000017</v>
+        <v>47.52</v>
       </c>
       <c r="M565" s="72">
-        <v>38.448000000000008</v>
+        <v>38.448</v>
       </c>
       <c r="N565" s="72">
-        <v>71.795000000000016</v>
+        <v>71.795000000000002</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
@@ -32081,13 +32081,13 @@
         <v>11.224</v>
       </c>
       <c r="L566" s="72">
-        <v>40.221999999999994</v>
+        <v>40.222000000000008</v>
       </c>
       <c r="M566" s="72">
         <v>31.573</v>
       </c>
       <c r="N566" s="72">
-        <v>51.445999999999998</v>
+        <v>51.446000000000005</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.25">
@@ -32125,7 +32125,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="72">
-        <v>51.445999999999998</v>
+        <v>51.446000000000005</v>
       </c>
       <c r="N567" s="72">
         <v>0</v>
@@ -33162,16 +33162,16 @@
         <v>70</v>
       </c>
       <c r="K592" s="72">
-        <v>27.09</v>
+        <v>27.090000000000003</v>
       </c>
       <c r="L592" s="72">
-        <v>72.114999999999995</v>
+        <v>72.114999999999981</v>
       </c>
       <c r="M592" s="72">
-        <v>18.726000000000003</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="N592" s="72">
-        <v>99.204999999999998</v>
+        <v>99.204999999999984</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
@@ -33206,13 +33206,13 @@
         <v>70</v>
       </c>
       <c r="K593" s="72">
-        <v>80.50200000000001</v>
+        <v>80.501999999999995</v>
       </c>
       <c r="L593" s="72">
-        <v>49.048999999999978</v>
+        <v>49.048999999999992</v>
       </c>
       <c r="M593" s="72">
-        <v>50.156000000000006</v>
+        <v>50.155999999999999</v>
       </c>
       <c r="N593" s="72">
         <v>129.55099999999999</v>
@@ -33326,10 +33326,10 @@
         <v>70</v>
       </c>
       <c r="K596" s="72">
-        <v>34.522000000000006</v>
+        <v>34.521999999999998</v>
       </c>
       <c r="L596" s="72">
-        <v>11.967999999999996</v>
+        <v>11.968000000000004</v>
       </c>
       <c r="M596" s="72">
         <v>5.7279999999999998</v>
@@ -33373,13 +33373,13 @@
         <v>38.576999999999998</v>
       </c>
       <c r="L597" s="72">
-        <v>37.054000000000002</v>
+        <v>37.054000000000016</v>
       </c>
       <c r="M597" s="72">
         <v>9.4359999999999999</v>
       </c>
       <c r="N597" s="72">
-        <v>75.631</v>
+        <v>75.631000000000014</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
@@ -34938,16 +34938,16 @@
         <v>70</v>
       </c>
       <c r="K634" s="72">
-        <v>13.686000000000002</v>
+        <v>13.686</v>
       </c>
       <c r="L634" s="72">
-        <v>19.391999999999996</v>
+        <v>19.392000000000003</v>
       </c>
       <c r="M634" s="72">
         <v>32.688000000000002</v>
       </c>
       <c r="N634" s="72">
-        <v>33.077999999999996</v>
+        <v>33.078000000000003</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
@@ -34985,13 +34985,13 @@
         <v>26.981000000000002</v>
       </c>
       <c r="L635" s="72">
-        <v>15.646999999999998</v>
+        <v>15.647000000000006</v>
       </c>
       <c r="M635" s="72">
-        <v>17.430999999999997</v>
+        <v>17.431000000000001</v>
       </c>
       <c r="N635" s="72">
-        <v>42.628</v>
+        <v>42.628000000000007</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="M636" s="72">
-        <v>42.628</v>
+        <v>42.628000000000007</v>
       </c>
       <c r="N636" s="72">
         <v>0</v>
@@ -35105,13 +35105,13 @@
         <v>50.915999999999997</v>
       </c>
       <c r="L638" s="72">
-        <v>20.888999999999996</v>
+        <v>20.88900000000001</v>
       </c>
       <c r="M638" s="72">
-        <v>33.196999999999996</v>
+        <v>33.197000000000003</v>
       </c>
       <c r="N638" s="72">
-        <v>71.804999999999993</v>
+        <v>71.805000000000007</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
@@ -35149,13 +35149,13 @@
         <v>33.385000000000005</v>
       </c>
       <c r="L639" s="72">
-        <v>69.251999999999981</v>
+        <v>69.251999999999995</v>
       </c>
       <c r="M639" s="72">
         <v>2.5529999999999999</v>
       </c>
       <c r="N639" s="72">
-        <v>102.63699999999999</v>
+        <v>102.637</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -35190,16 +35190,16 @@
         <v>70</v>
       </c>
       <c r="K640" s="72">
-        <v>6.9749999999999996</v>
+        <v>6.9750000000000005</v>
       </c>
       <c r="L640" s="72">
-        <v>30.646999999999998</v>
+        <v>30.646999999999991</v>
       </c>
       <c r="M640" s="72">
-        <v>71.989999999999981</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="N640" s="72">
-        <v>37.622</v>
+        <v>37.621999999999993</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.25">
@@ -36790,7 +36790,7 @@
         <v>70</v>
       </c>
       <c r="K678" s="72">
-        <v>46.875</v>
+        <v>46.875000000000007</v>
       </c>
       <c r="L678" s="72">
         <v>0</v>
@@ -36799,7 +36799,7 @@
         <v>0</v>
       </c>
       <c r="N678" s="72">
-        <v>46.875</v>
+        <v>46.875000000000007</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.25">
@@ -36837,13 +36837,13 @@
         <v>55.61</v>
       </c>
       <c r="L679" s="72">
-        <v>37.212000000000018</v>
+        <v>37.212000000000003</v>
       </c>
       <c r="M679" s="72">
         <v>9.6630000000000003</v>
       </c>
       <c r="N679" s="72">
-        <v>92.822000000000017</v>
+        <v>92.822000000000003</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.25">
@@ -36878,13 +36878,13 @@
         <v>70</v>
       </c>
       <c r="K680" s="72">
-        <v>24.833000000000006</v>
+        <v>24.833000000000002</v>
       </c>
       <c r="L680" s="72">
         <v>66.613</v>
       </c>
       <c r="M680" s="72">
-        <v>26.209</v>
+        <v>26.209000000000003</v>
       </c>
       <c r="N680" s="72">
         <v>91.445999999999998</v>
@@ -36928,7 +36928,7 @@
         <v>32.684000000000012</v>
       </c>
       <c r="M681" s="72">
-        <v>58.762</v>
+        <v>58.762000000000008</v>
       </c>
       <c r="N681" s="72">
         <v>110.96900000000001</v>
@@ -36969,13 +36969,13 @@
         <v>25.331000000000003</v>
       </c>
       <c r="L682" s="72">
-        <v>48.565000000000012</v>
+        <v>48.564999999999998</v>
       </c>
       <c r="M682" s="72">
-        <v>62.404000000000003</v>
+        <v>62.404000000000011</v>
       </c>
       <c r="N682" s="72">
-        <v>73.896000000000015</v>
+        <v>73.896000000000001</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.25">
@@ -37013,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="M683" s="72">
-        <v>73.896000000000015</v>
+        <v>73.896000000000001</v>
       </c>
       <c r="N683" s="72">
         <v>0</v>
@@ -38273,7 +38273,7 @@
         <v>0</v>
       </c>
       <c r="M713" s="72">
-        <v>49.738000000000007</v>
+        <v>49.738</v>
       </c>
       <c r="N713" s="72">
         <v>0</v>
@@ -38346,16 +38346,16 @@
         <v>70</v>
       </c>
       <c r="K715" s="72">
-        <v>86.028000000000006</v>
+        <v>86.027999999999992</v>
       </c>
       <c r="L715" s="72">
-        <v>107.82199999999996</v>
+        <v>107.822</v>
       </c>
       <c r="M715" s="72">
         <v>30.715</v>
       </c>
       <c r="N715" s="72">
-        <v>193.84999999999997</v>
+        <v>193.85</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.25">
@@ -38396,7 +38396,7 @@
         <v>41.481999999999999</v>
       </c>
       <c r="M716" s="72">
-        <v>152.36799999999999</v>
+        <v>152.36800000000005</v>
       </c>
       <c r="N716" s="72">
         <v>62.792000000000002</v>
@@ -38440,7 +38440,7 @@
         <v>44.402999999999992</v>
       </c>
       <c r="M717" s="72">
-        <v>18.388999999999999</v>
+        <v>18.389000000000003</v>
       </c>
       <c r="N717" s="72">
         <v>54.574999999999996</v>
@@ -39814,7 +39814,7 @@
         <v>70</v>
       </c>
       <c r="K750" s="72">
-        <v>90.141000000000005</v>
+        <v>90.140999999999991</v>
       </c>
       <c r="L750" s="72">
         <v>0</v>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
       <c r="N750" s="72">
-        <v>90.141000000000005</v>
+        <v>90.140999999999991</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.25">
@@ -39858,10 +39858,10 @@
         <v>70</v>
       </c>
       <c r="K751" s="72">
-        <v>114.90200000000002</v>
+        <v>114.902</v>
       </c>
       <c r="L751" s="72">
-        <v>72.174999999999983</v>
+        <v>72.174999999999997</v>
       </c>
       <c r="M751" s="72">
         <v>17.966000000000001</v>
@@ -39902,13 +39902,13 @@
         <v>70</v>
       </c>
       <c r="K752" s="72">
-        <v>46.29</v>
+        <v>46.289999999999992</v>
       </c>
       <c r="L752" s="72">
         <v>76.445000000000022</v>
       </c>
       <c r="M752" s="72">
-        <v>110.63199999999998</v>
+        <v>110.63200000000001</v>
       </c>
       <c r="N752" s="72">
         <v>122.73500000000001</v>
@@ -39952,7 +39952,7 @@
         <v>55.03</v>
       </c>
       <c r="M753" s="72">
-        <v>67.705000000000013</v>
+        <v>67.704999999999998</v>
       </c>
       <c r="N753" s="72">
         <v>71.471000000000004</v>
@@ -41250,7 +41250,7 @@
         <v>70</v>
       </c>
       <c r="K784" s="72">
-        <v>17.040999999999997</v>
+        <v>17.041</v>
       </c>
       <c r="L784" s="72">
         <v>94.695999999999998</v>
@@ -41326,7 +41326,7 @@
         <v>70</v>
       </c>
       <c r="K786" s="72">
-        <v>43.29</v>
+        <v>43.290000000000006</v>
       </c>
       <c r="L786" s="72">
         <v>0</v>
@@ -41335,7 +41335,7 @@
         <v>0</v>
       </c>
       <c r="N786" s="72">
-        <v>43.29</v>
+        <v>43.290000000000006</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.25">
@@ -41373,13 +41373,13 @@
         <v>67.598000000000013</v>
       </c>
       <c r="L787" s="72">
-        <v>34.910999999999987</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="M787" s="72">
         <v>8.3789999999999996</v>
       </c>
       <c r="N787" s="72">
-        <v>102.509</v>
+        <v>102.50900000000001</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.25">
@@ -41414,16 +41414,16 @@
         <v>70</v>
       </c>
       <c r="K788" s="72">
-        <v>116.21300000000001</v>
+        <v>116.21299999999999</v>
       </c>
       <c r="L788" s="72">
-        <v>80.895999999999972</v>
+        <v>80.896000000000043</v>
       </c>
       <c r="M788" s="72">
         <v>21.613</v>
       </c>
       <c r="N788" s="72">
-        <v>197.10899999999998</v>
+        <v>197.10900000000004</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -41458,13 +41458,13 @@
         <v>70</v>
       </c>
       <c r="K789" s="72">
-        <v>37.165000000000006</v>
+        <v>37.164999999999999</v>
       </c>
       <c r="L789" s="72">
-        <v>105.414</v>
+        <v>105.41400000000002</v>
       </c>
       <c r="M789" s="72">
-        <v>91.695000000000022</v>
+        <v>91.695000000000007</v>
       </c>
       <c r="N789" s="72">
         <v>142.57900000000001</v>
@@ -42882,10 +42882,10 @@
         <v>70</v>
       </c>
       <c r="K823" s="72">
-        <v>78.416000000000025</v>
+        <v>78.416000000000011</v>
       </c>
       <c r="L823" s="72">
-        <v>37.800999999999988</v>
+        <v>37.801000000000002</v>
       </c>
       <c r="M823" s="72">
         <v>7.5839999999999996</v>
@@ -42932,7 +42932,7 @@
         <v>95.402000000000001</v>
       </c>
       <c r="M824" s="72">
-        <v>20.815000000000001</v>
+        <v>20.814999999999998</v>
       </c>
       <c r="N824" s="72">
         <v>115.869</v>
@@ -42973,13 +42973,13 @@
         <v>36.686</v>
       </c>
       <c r="L825" s="72">
-        <v>33.45600000000001</v>
+        <v>33.455999999999996</v>
       </c>
       <c r="M825" s="72">
         <v>82.413000000000011</v>
       </c>
       <c r="N825" s="72">
-        <v>70.14200000000001</v>
+        <v>70.141999999999996</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -44350,7 +44350,7 @@
         <v>70</v>
       </c>
       <c r="K858" s="72">
-        <v>59.963000000000001</v>
+        <v>59.962999999999994</v>
       </c>
       <c r="L858" s="72">
         <v>0</v>
@@ -44359,7 +44359,7 @@
         <v>0</v>
       </c>
       <c r="N858" s="72">
-        <v>59.963000000000001</v>
+        <v>59.962999999999994</v>
       </c>
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.25">
@@ -44482,16 +44482,16 @@
         <v>70</v>
       </c>
       <c r="K861" s="72">
-        <v>19.114000000000001</v>
+        <v>19.113999999999997</v>
       </c>
       <c r="L861" s="72">
-        <v>32.943999999999988</v>
+        <v>32.94400000000001</v>
       </c>
       <c r="M861" s="72">
         <v>13.370999999999999</v>
       </c>
       <c r="N861" s="72">
-        <v>52.057999999999993</v>
+        <v>52.058000000000007</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.25">
@@ -44526,10 +44526,10 @@
         <v>70</v>
       </c>
       <c r="K862" s="72">
-        <v>9.113999999999999</v>
+        <v>9.1140000000000008</v>
       </c>
       <c r="L862" s="72">
-        <v>19.283000000000001</v>
+        <v>19.282999999999998</v>
       </c>
       <c r="M862" s="72">
         <v>32.774999999999999</v>
@@ -46041,13 +46041,13 @@
         <v>41.608000000000004</v>
       </c>
       <c r="L898" s="72">
-        <v>74.360000000000014</v>
+        <v>74.36</v>
       </c>
       <c r="M898" s="72">
-        <v>5.9349999999999996</v>
+        <v>5.9350000000000005</v>
       </c>
       <c r="N898" s="72">
-        <v>115.96800000000002</v>
+        <v>115.968</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.25">
@@ -46082,16 +46082,16 @@
         <v>70</v>
       </c>
       <c r="K899" s="72">
-        <v>36.103000000000002</v>
+        <v>36.103000000000009</v>
       </c>
       <c r="L899" s="72">
-        <v>87.384999999999991</v>
+        <v>87.385000000000005</v>
       </c>
       <c r="M899" s="72">
         <v>28.583000000000002</v>
       </c>
       <c r="N899" s="72">
-        <v>123.488</v>
+        <v>123.48800000000001</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
@@ -46132,7 +46132,7 @@
         <v>105.97800000000001</v>
       </c>
       <c r="M900" s="72">
-        <v>17.509999999999998</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="N900" s="72">
         <v>137.96600000000001</v>
@@ -46176,7 +46176,7 @@
         <v>99.137</v>
       </c>
       <c r="M901" s="72">
-        <v>38.829000000000001</v>
+        <v>38.829000000000008</v>
       </c>
       <c r="N901" s="72">
         <v>107.05500000000001</v>
@@ -46214,7 +46214,7 @@
         <v>70</v>
       </c>
       <c r="K902" s="72">
-        <v>19.84</v>
+        <v>19.840000000000003</v>
       </c>
       <c r="L902" s="72">
         <v>75.260000000000005</v>
@@ -48078,16 +48078,16 @@
         <v>70</v>
       </c>
       <c r="K946" s="72">
-        <v>42.790000000000006</v>
+        <v>42.79</v>
       </c>
       <c r="L946" s="72">
-        <v>67.350999999999985</v>
+        <v>67.351000000000028</v>
       </c>
       <c r="M946" s="72">
-        <v>21.562999999999999</v>
+        <v>21.563000000000002</v>
       </c>
       <c r="N946" s="72">
-        <v>110.14099999999999</v>
+        <v>110.14100000000002</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.25">
@@ -48122,7 +48122,7 @@
         <v>70</v>
       </c>
       <c r="K947" s="72">
-        <v>31.665000000000003</v>
+        <v>31.665000000000006</v>
       </c>
       <c r="L947" s="72">
         <v>98.423999999999992</v>
@@ -49869,7 +49869,7 @@
         <v>0</v>
       </c>
       <c r="M988" s="72">
-        <v>100.295</v>
+        <v>100.29500000000002</v>
       </c>
       <c r="N988" s="72">
         <v>0</v>
@@ -49942,16 +49942,16 @@
         <v>70</v>
       </c>
       <c r="K990" s="72">
-        <v>40.489000000000004</v>
+        <v>40.48899999999999</v>
       </c>
       <c r="L990" s="72">
-        <v>20.36099999999999</v>
+        <v>20.361000000000011</v>
       </c>
       <c r="M990" s="72">
         <v>1.2549999999999999</v>
       </c>
       <c r="N990" s="72">
-        <v>60.849999999999994</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="991" spans="1:14" x14ac:dyDescent="0.25">
@@ -49989,13 +49989,13 @@
         <v>39.778999999999996</v>
       </c>
       <c r="L991" s="72">
-        <v>44.631999999999991</v>
+        <v>44.632000000000005</v>
       </c>
       <c r="M991" s="72">
         <v>16.218000000000004</v>
       </c>
       <c r="N991" s="72">
-        <v>84.410999999999987</v>
+        <v>84.411000000000001</v>
       </c>
     </row>
     <row r="992" spans="1:14" x14ac:dyDescent="0.25">
@@ -50033,13 +50033,13 @@
         <v>38.460999999999999</v>
       </c>
       <c r="L992" s="72">
-        <v>48.784000000000006</v>
+        <v>48.783999999999992</v>
       </c>
       <c r="M992" s="72">
-        <v>35.62700000000001</v>
+        <v>35.626999999999995</v>
       </c>
       <c r="N992" s="72">
-        <v>87.245000000000005</v>
+        <v>87.24499999999999</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.25">
@@ -52318,16 +52318,16 @@
         <v>70</v>
       </c>
       <c r="K1047" s="72">
-        <v>23.081000000000003</v>
+        <v>23.081</v>
       </c>
       <c r="L1047" s="72">
-        <v>32.359999999999992</v>
+        <v>32.36</v>
       </c>
       <c r="M1047" s="72">
         <v>39.807000000000002</v>
       </c>
       <c r="N1047" s="72">
-        <v>55.440999999999995</v>
+        <v>55.441000000000003</v>
       </c>
     </row>
     <row r="1048" spans="1:14" x14ac:dyDescent="0.25">
@@ -52365,7 +52365,7 @@
         <v>0</v>
       </c>
       <c r="M1048" s="72">
-        <v>55.440999999999995</v>
+        <v>55.441000000000003</v>
       </c>
       <c r="N1048" s="72">
         <v>0</v>
@@ -52438,10 +52438,10 @@
         <v>70</v>
       </c>
       <c r="K1050" s="72">
-        <v>37.781000000000006</v>
+        <v>37.780999999999992</v>
       </c>
       <c r="L1050" s="72">
-        <v>24.589999999999989</v>
+        <v>24.590000000000003</v>
       </c>
       <c r="M1050" s="72">
         <v>9.0240000000000009</v>
@@ -52485,13 +52485,13 @@
         <v>38.227000000000004</v>
       </c>
       <c r="L1051" s="72">
-        <v>23.962999999999987</v>
+        <v>23.963000000000001</v>
       </c>
       <c r="M1051" s="72">
         <v>38.408000000000001</v>
       </c>
       <c r="N1051" s="72">
-        <v>62.189999999999991</v>
+        <v>62.190000000000005</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.25">
@@ -53686,7 +53686,7 @@
         <v>70</v>
       </c>
       <c r="K1080" s="72">
-        <v>47.083000000000006</v>
+        <v>47.082999999999998</v>
       </c>
       <c r="L1080" s="72">
         <v>15.286000000000001</v>
@@ -53695,7 +53695,7 @@
         <v>6.0289999999999999</v>
       </c>
       <c r="N1080" s="72">
-        <v>62.369000000000007</v>
+        <v>62.369</v>
       </c>
     </row>
     <row r="1081" spans="1:14" x14ac:dyDescent="0.25">
@@ -53730,7 +53730,7 @@
         <v>70</v>
       </c>
       <c r="K1081" s="72">
-        <v>71.289000000000001</v>
+        <v>71.289000000000016</v>
       </c>
       <c r="L1081" s="72">
         <v>29.060999999999993</v>
@@ -53739,7 +53739,7 @@
         <v>33.308</v>
       </c>
       <c r="N1081" s="72">
-        <v>100.35</v>
+        <v>100.35000000000001</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.25">
@@ -53777,13 +53777,13 @@
         <v>39.796000000000006</v>
       </c>
       <c r="L1082" s="72">
-        <v>79.243999999999986</v>
+        <v>79.244</v>
       </c>
       <c r="M1082" s="72">
         <v>21.106000000000002</v>
       </c>
       <c r="N1082" s="72">
-        <v>119.03999999999999</v>
+        <v>119.04</v>
       </c>
     </row>
     <row r="1083" spans="1:14" x14ac:dyDescent="0.25">
@@ -53821,7 +53821,7 @@
         <v>0</v>
       </c>
       <c r="M1083" s="72">
-        <v>119.03999999999999</v>
+        <v>119.04</v>
       </c>
       <c r="N1083" s="72">
         <v>0</v>
@@ -54981,13 +54981,13 @@
         <v>90.775000000000006</v>
       </c>
       <c r="L1111" s="72">
-        <v>143.15199999999999</v>
+        <v>143.15200000000002</v>
       </c>
       <c r="M1111" s="72">
-        <v>56.439000000000007</v>
+        <v>56.438999999999993</v>
       </c>
       <c r="N1111" s="72">
-        <v>233.92699999999999</v>
+        <v>233.92700000000002</v>
       </c>
     </row>
     <row r="1112" spans="1:14" x14ac:dyDescent="0.25">
@@ -55028,7 +55028,7 @@
         <v>52.275000000000006</v>
       </c>
       <c r="M1112" s="72">
-        <v>181.65199999999999</v>
+        <v>181.65200000000002</v>
       </c>
       <c r="N1112" s="72">
         <v>73.983000000000004</v>
@@ -56021,13 +56021,13 @@
         <v>29.433</v>
       </c>
       <c r="L1136" s="72">
-        <v>47.93399999999999</v>
+        <v>47.934000000000005</v>
       </c>
       <c r="M1136" s="72">
         <v>96.443999999999988</v>
       </c>
       <c r="N1136" s="72">
-        <v>77.36699999999999</v>
+        <v>77.367000000000004</v>
       </c>
     </row>
     <row r="1137" spans="1:14" x14ac:dyDescent="0.25">
@@ -56068,7 +56068,7 @@
         <v>25.779000000000003</v>
       </c>
       <c r="M1137" s="72">
-        <v>51.588000000000001</v>
+        <v>51.588000000000008</v>
       </c>
       <c r="N1137" s="72">
         <v>26.359000000000002</v>
@@ -56138,7 +56138,7 @@
         <v>70</v>
       </c>
       <c r="K1139" s="72">
-        <v>64.435999999999993</v>
+        <v>64.436000000000007</v>
       </c>
       <c r="L1139" s="72">
         <v>0</v>
@@ -56147,7 +56147,7 @@
         <v>0</v>
       </c>
       <c r="N1139" s="72">
-        <v>64.435999999999993</v>
+        <v>64.436000000000007</v>
       </c>
     </row>
     <row r="1140" spans="1:14" x14ac:dyDescent="0.25">
@@ -59958,13 +59958,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>58.364500000000007</v>
+        <v>58.364500000000014</v>
       </c>
       <c r="H7" s="72">
         <v>140</v>
       </c>
       <c r="I7" s="76">
-        <v>0.41688928571428574</v>
+        <v>0.4168892857142858</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -59987,13 +59987,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>253.7612499999999</v>
+        <v>253.76124999999996</v>
       </c>
       <c r="H8" s="72">
         <v>210</v>
       </c>
       <c r="I8" s="76">
-        <v>1.2083869047619042</v>
+        <v>1.2083869047619045</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -60045,13 +60045,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>56.98899999999999</v>
+        <v>56.98900000000004</v>
       </c>
       <c r="H10" s="72">
         <v>140</v>
       </c>
       <c r="I10" s="76">
-        <v>0.40706428571428566</v>
+        <v>0.40706428571428599</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -60103,13 +60103,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>8.9357499999999987</v>
+        <v>8.9357500000000005</v>
       </c>
       <c r="H12" s="72">
         <v>70</v>
       </c>
       <c r="I12" s="76">
-        <v>0.12765357142857142</v>
+        <v>0.12765357142857145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -60161,13 +60161,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>55.273999999999994</v>
+        <v>55.274000000000008</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.39481428571428567</v>
+        <v>0.39481428571428578</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -60190,13 +60190,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>58.359500000000018</v>
+        <v>58.359500000000004</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.41685357142857155</v>
+        <v>0.41685357142857143</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -60219,13 +60219,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>108.06775000000002</v>
+        <v>108.06774999999999</v>
       </c>
       <c r="H16" s="72">
         <v>140</v>
       </c>
       <c r="I16" s="76">
-        <v>0.77191250000000011</v>
+        <v>0.77191249999999989</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -60248,13 +60248,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>59.419499999999999</v>
+        <v>59.419500000000021</v>
       </c>
       <c r="H17" s="72">
         <v>140</v>
       </c>
       <c r="I17" s="76">
-        <v>0.424425</v>
+        <v>0.42442500000000016</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -60277,13 +60277,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.511499999999991</v>
+        <v>40.511500000000005</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.57873571428571413</v>
+        <v>0.57873571428571435</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -60306,13 +60306,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>36.900250000000028</v>
+        <v>36.900249999999986</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.52714642857142902</v>
+        <v>0.52714642857142835</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -60335,13 +60335,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>23.490500000000008</v>
+        <v>23.490500000000001</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>0.33557857142857156</v>
+        <v>0.33557857142857145</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -60364,13 +60364,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>17.448249999999994</v>
+        <v>17.448249999999998</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.2492607142857142</v>
+        <v>0.24926071428571425</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -60393,13 +60393,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="72">
-        <v>34.829499999999982</v>
+        <v>34.829499999999996</v>
       </c>
       <c r="H22" s="72">
         <v>70</v>
       </c>
       <c r="I22" s="76">
-        <v>0.49756428571428546</v>
+        <v>0.49756428571428568</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -60451,13 +60451,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>101.38175</v>
+        <v>101.38174999999998</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>1.4483107142857143</v>
+        <v>1.4483107142857141</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -60480,13 +60480,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>26.994500000000002</v>
+        <v>26.994499999999999</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.3856357142857143</v>
+        <v>0.38563571428571425</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -60509,13 +60509,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>203.25500000000011</v>
+        <v>203.25500000000005</v>
       </c>
       <c r="H26" s="72">
         <v>210</v>
       </c>
       <c r="I26" s="76">
-        <v>0.96788095238095295</v>
+        <v>0.96788095238095262</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -60538,13 +60538,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>57.756750000000011</v>
+        <v>57.756750000000018</v>
       </c>
       <c r="H27" s="72">
         <v>210</v>
       </c>
       <c r="I27" s="76">
-        <v>0.27503214285714289</v>
+        <v>0.27503214285714295</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -60567,13 +60567,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>118.25074999999998</v>
+        <v>118.25075000000001</v>
       </c>
       <c r="H28" s="72">
         <v>70</v>
       </c>
       <c r="I28" s="76">
-        <v>1.6892964285714283</v>
+        <v>1.6892964285714287</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -60596,13 +60596,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>57.748750000000001</v>
+        <v>57.748750000000015</v>
       </c>
       <c r="H29" s="72">
         <v>70</v>
       </c>
       <c r="I29" s="76">
-        <v>0.82498214285714289</v>
+        <v>0.82498214285714311</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -60625,13 +60625,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>91.172499999999999</v>
+        <v>91.172499999999957</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.65123214285714282</v>
+        <v>0.65123214285714259</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -60654,13 +60654,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>50.26874999999999</v>
+        <v>50.268749999999997</v>
       </c>
       <c r="H31" s="72">
         <v>140</v>
       </c>
       <c r="I31" s="76">
-        <v>0.35906249999999995</v>
+        <v>0.35906250000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -60683,13 +60683,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>91.134749999999997</v>
+        <v>91.134750000000025</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.6509625</v>
+        <v>0.65096250000000022</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -60770,13 +60770,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>123.05425</v>
+        <v>123.05425000000001</v>
       </c>
       <c r="H35" s="72">
         <v>210</v>
       </c>
       <c r="I35" s="76">
-        <v>0.58597261904761899</v>
+        <v>0.5859726190476191</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -60799,13 +60799,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>65.100250000000017</v>
+        <v>65.100249999999988</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.93000357142857171</v>
+        <v>0.93000357142857126</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -60828,13 +60828,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>51.504999999999995</v>
+        <v>51.504999999999981</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.73578571428571427</v>
+        <v>0.73578571428571404</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -60857,13 +60857,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>76.448750000000047</v>
+        <v>76.448750000000032</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.54606250000000034</v>
+        <v>0.54606250000000023</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -60886,13 +60886,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>42.90475</v>
+        <v>42.904750000000021</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.30646250000000003</v>
+        <v>0.30646250000000014</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -60915,13 +60915,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>93.895250000000047</v>
+        <v>93.895250000000033</v>
       </c>
       <c r="H40" s="72">
         <v>140</v>
       </c>
       <c r="I40" s="76">
-        <v>0.67068035714285745</v>
+        <v>0.67068035714285734</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -60944,13 +60944,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>51.77350000000002</v>
+        <v>51.773499999999999</v>
       </c>
       <c r="H41" s="72">
         <v>140</v>
       </c>
       <c r="I41" s="76">
-        <v>0.36981071428571444</v>
+        <v>0.36981071428571427</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -60973,13 +60973,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>299.93424999999996</v>
+        <v>299.93425000000002</v>
       </c>
       <c r="H42" s="72">
         <v>280</v>
       </c>
       <c r="I42" s="76">
-        <v>1.0711937499999999</v>
+        <v>1.0711937500000002</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -61002,13 +61002,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>112.71825</v>
+        <v>112.71825000000003</v>
       </c>
       <c r="H43" s="72">
         <v>280</v>
       </c>
       <c r="I43" s="76">
-        <v>0.40256517857142854</v>
+        <v>0.40256517857142865</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -61031,13 +61031,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>38.09174999999999</v>
+        <v>38.091750000000005</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.54416785714285698</v>
+        <v>0.5441678571428572</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -61060,13 +61060,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>53.660249999999998</v>
+        <v>53.660249999999984</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.76657500000000001</v>
+        <v>0.76657499999999978</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -61089,7 +61089,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>445.88049999999981</v>
+        <v>445.88049999999987</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
@@ -61118,13 +61118,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>196.64674999999994</v>
+        <v>196.64675000000005</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.46820654761904745</v>
+        <v>0.46820654761904773</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -61176,13 +61176,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>112.33075000000002</v>
+        <v>112.33075000000005</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.8023625000000002</v>
+        <v>0.80236250000000042</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -61205,13 +61205,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>196.73249999999996</v>
+        <v>196.73250000000002</v>
       </c>
       <c r="H50" s="72">
         <v>350</v>
       </c>
       <c r="I50" s="76">
-        <v>0.56209285714285706</v>
+        <v>0.56209285714285717</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -61234,13 +61234,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>285.31324999999998</v>
+        <v>285.31324999999993</v>
       </c>
       <c r="H51" s="72">
         <v>350</v>
       </c>
       <c r="I51" s="76">
-        <v>0.81518071428571426</v>
+        <v>0.81518071428571404</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -61292,13 +61292,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>251.16750000000005</v>
+        <v>251.16750000000002</v>
       </c>
       <c r="H53" s="72">
         <v>210</v>
       </c>
       <c r="I53" s="76">
-        <v>1.1960357142857145</v>
+        <v>1.1960357142857143</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -61321,13 +61321,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>68.066250000000025</v>
+        <v>68.066249999999997</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.32412500000000011</v>
+        <v>0.324125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -61350,13 +61350,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>89.575250000000054</v>
+        <v>89.575250000000011</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.4265488095238098</v>
+        <v>0.42654880952380958</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -61379,13 +61379,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>97.636750000000049</v>
+        <v>97.636750000000021</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
       </c>
       <c r="I56" s="76">
-        <v>0.69740535714285745</v>
+        <v>0.69740535714285734</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -61408,13 +61408,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>86.422749999999979</v>
+        <v>86.422750000000008</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.61730535714285695</v>
+        <v>0.61730535714285717</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -61437,13 +61437,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="72">
-        <v>80.477500000000006</v>
+        <v>80.47750000000002</v>
       </c>
       <c r="H58" s="72">
         <v>140</v>
       </c>
       <c r="I58" s="76">
-        <v>0.57483928571428577</v>
+        <v>0.57483928571428589</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -61495,13 +61495,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>41.550750000000008</v>
+        <v>41.550750000000001</v>
       </c>
       <c r="H60" s="72">
         <v>140</v>
       </c>
       <c r="I60" s="76">
-        <v>0.29679107142857147</v>
+        <v>0.29679107142857142</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -61524,13 +61524,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>38.766249999999992</v>
+        <v>38.766249999999999</v>
       </c>
       <c r="H61" s="72">
         <v>140</v>
       </c>
       <c r="I61" s="76">
-        <v>0.27690178571428564</v>
+        <v>0.2769017857142857</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -61582,13 +61582,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>38.133250000000004</v>
+        <v>38.133249999999997</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.54476071428571438</v>
+        <v>0.54476071428571426</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -61611,13 +61611,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>119.65300000000003</v>
+        <v>119.65300000000006</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.56977619047619066</v>
+        <v>0.56977619047619077</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -61640,13 +61640,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>122.08075000000004</v>
+        <v>122.08075000000001</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.58133690476190492</v>
+        <v>0.5813369047619048</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -61698,7 +61698,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>43.463999999999999</v>
+        <v>43.463999999999992</v>
       </c>
       <c r="H67" s="72">
         <v>70</v>
@@ -61727,13 +61727,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>101.57000000000002</v>
+        <v>101.57000000000001</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.48366666666666674</v>
+        <v>0.48366666666666669</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -61785,13 +61785,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>36.008499999999991</v>
+        <v>36.008499999999998</v>
       </c>
       <c r="H70" s="72">
         <v>70</v>
       </c>
       <c r="I70" s="76">
-        <v>0.51440714285714273</v>
+        <v>0.51440714285714284</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -61843,13 +61843,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>67.720500000000015</v>
+        <v>67.72050000000003</v>
       </c>
       <c r="H72" s="72">
         <v>140</v>
       </c>
       <c r="I72" s="76">
-        <v>0.48371785714285725</v>
+        <v>0.48371785714285737</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -61872,13 +61872,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>62.331750000000014</v>
+        <v>62.33175</v>
       </c>
       <c r="H73" s="72">
         <v>140</v>
       </c>
       <c r="I73" s="76">
-        <v>0.44522678571428581</v>
+        <v>0.4452267857142857</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -61901,13 +61901,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>62.612249999999975</v>
+        <v>62.612250000000003</v>
       </c>
       <c r="H74" s="72">
         <v>140</v>
       </c>
       <c r="I74" s="76">
-        <v>0.44723035714285697</v>
+        <v>0.44723035714285714</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -61930,13 +61930,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>56.917500000000004</v>
+        <v>56.917499999999976</v>
       </c>
       <c r="H75" s="72">
         <v>140</v>
       </c>
       <c r="I75" s="76">
-        <v>0.40655357142857146</v>
+        <v>0.40655357142857124</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -61988,13 +61988,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="72">
-        <v>25.575750000000003</v>
+        <v>25.575749999999999</v>
       </c>
       <c r="H77" s="72">
         <v>140</v>
       </c>
       <c r="I77" s="76">
-        <v>0.18268392857142859</v>
+        <v>0.18268392857142857</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -62017,13 +62017,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>46.491999999999997</v>
+        <v>46.492000000000004</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.66417142857142852</v>
+        <v>0.66417142857142863</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -62046,13 +62046,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>25.54</v>
+        <v>25.540000000000006</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.36485714285714282</v>
+        <v>0.36485714285714294</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -62075,13 +62075,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>94.945250000000058</v>
+        <v>94.945250000000001</v>
       </c>
       <c r="H80" s="72">
         <v>70</v>
       </c>
       <c r="I80" s="76">
-        <v>1.356360714285715</v>
+        <v>1.3563607142857144</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -62104,13 +62104,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>43.024750000000012</v>
+        <v>43.024749999999997</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>0.61463928571428583</v>
+        <v>0.61463928571428572</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -62133,13 +62133,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>74.27500000000002</v>
+        <v>74.275000000000006</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>1.0610714285714289</v>
+        <v>1.0610714285714287</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -62162,13 +62162,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>30.750000000000011</v>
+        <v>30.75</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.43928571428571445</v>
+        <v>0.43928571428571428</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -62191,13 +62191,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>102.81325000000002</v>
+        <v>102.81325000000001</v>
       </c>
       <c r="H84" s="72">
         <v>140</v>
       </c>
       <c r="I84" s="76">
-        <v>0.73438035714285732</v>
+        <v>0.73438035714285721</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -62220,13 +62220,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>31.824749999999984</v>
+        <v>31.824749999999998</v>
       </c>
       <c r="H85" s="72">
         <v>140</v>
       </c>
       <c r="I85" s="76">
-        <v>0.22731964285714273</v>
+        <v>0.22731964285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S057/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S057/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2706,7 +2706,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.3587366355077084</v>
+        <v>0.35873663550770846</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2727,7 +2727,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.6892964285714287</v>
+        <v>1.6892964285714283</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8764,7 +8764,7 @@
         <v>30.959000000000017</v>
       </c>
       <c r="M12" s="72">
-        <v>59.648000000000003</v>
+        <v>59.647999999999996</v>
       </c>
       <c r="N12" s="72">
         <v>69.854000000000013</v>
@@ -8805,13 +8805,13 @@
         <v>2.4039999999999999</v>
       </c>
       <c r="L13" s="72">
-        <v>49.231000000000009</v>
+        <v>49.230999999999995</v>
       </c>
       <c r="M13" s="72">
         <v>20.623000000000001</v>
       </c>
       <c r="N13" s="72">
-        <v>51.635000000000005</v>
+        <v>51.634999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8849,13 +8849,13 @@
         <v>18.936999999999998</v>
       </c>
       <c r="L14" s="72">
-        <v>25.955000000000013</v>
+        <v>25.954999999999998</v>
       </c>
       <c r="M14" s="72">
         <v>25.68</v>
       </c>
       <c r="N14" s="72">
-        <v>44.89200000000001</v>
+        <v>44.891999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -9962,7 +9962,7 @@
         <v>70</v>
       </c>
       <c r="K41" s="72">
-        <v>31.645</v>
+        <v>31.645000000000003</v>
       </c>
       <c r="L41" s="72">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="72">
-        <v>31.645</v>
+        <v>31.645000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -10056,10 +10056,10 @@
         <v>44.466999999999999</v>
       </c>
       <c r="M43" s="72">
-        <v>24.475000000000001</v>
+        <v>24.474999999999998</v>
       </c>
       <c r="N43" s="72">
-        <v>58.205999999999996</v>
+        <v>58.206000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -10094,13 +10094,13 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>61.374000000000002</v>
+        <v>61.374000000000009</v>
       </c>
       <c r="L44" s="72">
-        <v>12.420999999999999</v>
+        <v>12.420999999999992</v>
       </c>
       <c r="M44" s="72">
-        <v>45.784999999999997</v>
+        <v>45.785000000000011</v>
       </c>
       <c r="N44" s="72">
         <v>73.795000000000002</v>
@@ -11166,7 +11166,7 @@
         <v>70</v>
       </c>
       <c r="K70" s="72">
-        <v>87.614999999999995</v>
+        <v>87.615000000000009</v>
       </c>
       <c r="L70" s="72">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="72">
-        <v>87.614999999999995</v>
+        <v>87.615000000000009</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>67.387</v>
       </c>
       <c r="M71" s="72">
-        <v>20.227999999999998</v>
+        <v>20.228000000000002</v>
       </c>
       <c r="N71" s="72">
         <v>83.796999999999997</v>
@@ -11257,13 +11257,13 @@
         <v>8.2639999999999993</v>
       </c>
       <c r="L72" s="72">
-        <v>24.392999999999997</v>
+        <v>24.393000000000004</v>
       </c>
       <c r="M72" s="72">
         <v>59.403999999999996</v>
       </c>
       <c r="N72" s="72">
-        <v>32.656999999999996</v>
+        <v>32.657000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="72">
-        <v>32.656999999999996</v>
+        <v>32.657000000000004</v>
       </c>
       <c r="N73" s="72">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>70</v>
       </c>
       <c r="K94" s="72">
-        <v>121.62799999999999</v>
+        <v>121.62800000000001</v>
       </c>
       <c r="L94" s="72">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="72">
-        <v>121.62799999999999</v>
+        <v>121.62800000000001</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -12197,13 +12197,13 @@
         <v>17.832999999999998</v>
       </c>
       <c r="L95" s="72">
-        <v>16.838000000000001</v>
+        <v>16.838000000000008</v>
       </c>
       <c r="M95" s="72">
         <v>104.79</v>
       </c>
       <c r="N95" s="72">
-        <v>34.670999999999999</v>
+        <v>34.671000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -12244,7 +12244,7 @@
         <v>19.003</v>
       </c>
       <c r="M96" s="72">
-        <v>15.668000000000001</v>
+        <v>15.667999999999999</v>
       </c>
       <c r="N96" s="72">
         <v>50.369</v>
@@ -13577,13 +13577,13 @@
         <v>5.6290000000000004</v>
       </c>
       <c r="L128" s="72">
-        <v>56.953000000000003</v>
+        <v>56.95300000000001</v>
       </c>
       <c r="M128" s="72">
         <v>20.302</v>
       </c>
       <c r="N128" s="72">
-        <v>62.582000000000001</v>
+        <v>62.582000000000008</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -13621,13 +13621,13 @@
         <v>75.802999999999997</v>
       </c>
       <c r="L129" s="72">
-        <v>27.396000000000001</v>
+        <v>27.395999999999987</v>
       </c>
       <c r="M129" s="72">
         <v>35.186000000000007</v>
       </c>
       <c r="N129" s="72">
-        <v>103.199</v>
+        <v>103.19899999999998</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -13665,13 +13665,13 @@
         <v>43.97</v>
       </c>
       <c r="L130" s="72">
-        <v>74.974000000000018</v>
+        <v>74.974000000000004</v>
       </c>
       <c r="M130" s="72">
         <v>28.224999999999994</v>
       </c>
       <c r="N130" s="72">
-        <v>118.94400000000002</v>
+        <v>118.944</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="72">
-        <v>118.94400000000002</v>
+        <v>118.944</v>
       </c>
       <c r="N131" s="72">
         <v>0</v>
@@ -13788,7 +13788,7 @@
         <v>79.697999999999979</v>
       </c>
       <c r="M133" s="72">
-        <v>16.805999999999997</v>
+        <v>16.806000000000001</v>
       </c>
       <c r="N133" s="72">
         <v>145.92599999999999</v>
@@ -13829,13 +13829,13 @@
         <v>22.231999999999999</v>
       </c>
       <c r="L134" s="72">
-        <v>36.875999999999991</v>
+        <v>36.875999999999998</v>
       </c>
       <c r="M134" s="72">
-        <v>109.05000000000001</v>
+        <v>109.05</v>
       </c>
       <c r="N134" s="72">
-        <v>59.10799999999999</v>
+        <v>59.107999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -13870,16 +13870,16 @@
         <v>70</v>
       </c>
       <c r="K135" s="72">
-        <v>15.582000000000001</v>
+        <v>15.582000000000003</v>
       </c>
       <c r="L135" s="72">
-        <v>43.469999999999992</v>
+        <v>43.47</v>
       </c>
       <c r="M135" s="72">
         <v>15.638</v>
       </c>
       <c r="N135" s="72">
-        <v>59.051999999999992</v>
+        <v>59.052</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -13914,7 +13914,7 @@
         <v>70</v>
       </c>
       <c r="K136" s="72">
-        <v>3.6669999999999998</v>
+        <v>3.6670000000000003</v>
       </c>
       <c r="L136" s="72">
         <v>40.432000000000002</v>
@@ -13961,13 +13961,13 @@
         <v>3.62</v>
       </c>
       <c r="L137" s="72">
-        <v>32.053000000000004</v>
+        <v>32.052999999999997</v>
       </c>
       <c r="M137" s="72">
         <v>12.045999999999999</v>
       </c>
       <c r="N137" s="72">
-        <v>35.673000000000002</v>
+        <v>35.672999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -14005,13 +14005,13 @@
         <v>35.185000000000002</v>
       </c>
       <c r="L138" s="72">
-        <v>12.367000000000004</v>
+        <v>12.367000000000019</v>
       </c>
       <c r="M138" s="72">
-        <v>23.306000000000001</v>
+        <v>23.305999999999997</v>
       </c>
       <c r="N138" s="72">
-        <v>47.552000000000007</v>
+        <v>47.552000000000021</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -14213,13 +14213,13 @@
         <v>50.798999999999999</v>
       </c>
       <c r="L143" s="72">
-        <v>30.966000000000001</v>
+        <v>30.965999999999973</v>
       </c>
       <c r="M143" s="72">
         <v>106.929</v>
       </c>
       <c r="N143" s="72">
-        <v>81.765000000000001</v>
+        <v>81.764999999999972</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -14257,13 +14257,13 @@
         <v>9.5630000000000006</v>
       </c>
       <c r="L144" s="72">
-        <v>56.143000000000001</v>
+        <v>56.142999999999986</v>
       </c>
       <c r="M144" s="72">
         <v>25.622</v>
       </c>
       <c r="N144" s="72">
-        <v>65.706000000000003</v>
+        <v>65.705999999999989</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -14301,13 +14301,13 @@
         <v>12.829000000000001</v>
       </c>
       <c r="L145" s="72">
-        <v>48.015000000000001</v>
+        <v>48.015000000000008</v>
       </c>
       <c r="M145" s="72">
         <v>17.691000000000003</v>
       </c>
       <c r="N145" s="72">
-        <v>60.844000000000001</v>
+        <v>60.844000000000008</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -17801,13 +17801,13 @@
         <v>16.36</v>
       </c>
       <c r="L227" s="72">
-        <v>262.96499999999992</v>
+        <v>262.96499999999997</v>
       </c>
       <c r="M227" s="72">
         <v>28.011000000000003</v>
       </c>
       <c r="N227" s="72">
-        <v>279.32499999999993</v>
+        <v>279.32499999999999</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -17842,10 +17842,10 @@
         <v>70</v>
       </c>
       <c r="K228" s="72">
-        <v>23.246000000000002</v>
+        <v>23.245999999999999</v>
       </c>
       <c r="L228" s="72">
-        <v>59.317999999999991</v>
+        <v>59.317999999999998</v>
       </c>
       <c r="M228" s="72">
         <v>220.00700000000001</v>
@@ -17886,16 +17886,16 @@
         <v>70</v>
       </c>
       <c r="K229" s="72">
-        <v>14.121</v>
+        <v>14.120999999999999</v>
       </c>
       <c r="L229" s="72">
-        <v>35.012999999999998</v>
+        <v>35.013000000000005</v>
       </c>
       <c r="M229" s="72">
         <v>47.551000000000002</v>
       </c>
       <c r="N229" s="72">
-        <v>49.134</v>
+        <v>49.134000000000007</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="M230" s="72">
-        <v>49.134</v>
+        <v>49.134000000000007</v>
       </c>
       <c r="N230" s="72">
         <v>0</v>
@@ -17962,7 +17962,7 @@
         <v>70</v>
       </c>
       <c r="K231" s="72">
-        <v>31.304000000000002</v>
+        <v>31.303999999999998</v>
       </c>
       <c r="L231" s="72">
         <v>0</v>
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="N231" s="72">
-        <v>31.304000000000002</v>
+        <v>31.303999999999998</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -18009,13 +18009,13 @@
         <v>42.795999999999999</v>
       </c>
       <c r="L232" s="72">
-        <v>17.133000000000003</v>
+        <v>17.13300000000001</v>
       </c>
       <c r="M232" s="72">
-        <v>14.171000000000001</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="N232" s="72">
-        <v>59.929000000000002</v>
+        <v>59.929000000000009</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -18050,10 +18050,10 @@
         <v>70</v>
       </c>
       <c r="K233" s="72">
-        <v>119.96300000000002</v>
+        <v>119.96299999999999</v>
       </c>
       <c r="L233" s="72">
-        <v>40.270999999999987</v>
+        <v>40.271000000000015</v>
       </c>
       <c r="M233" s="72">
         <v>19.658000000000001</v>
@@ -18094,7 +18094,7 @@
         <v>70</v>
       </c>
       <c r="K234" s="72">
-        <v>28.238</v>
+        <v>28.237999999999996</v>
       </c>
       <c r="L234" s="72">
         <v>155.416</v>
@@ -18138,7 +18138,7 @@
         <v>70</v>
       </c>
       <c r="K235" s="72">
-        <v>45.596000000000004</v>
+        <v>45.595999999999997</v>
       </c>
       <c r="L235" s="72">
         <v>175.63899999999998</v>
@@ -18226,16 +18226,16 @@
         <v>70</v>
       </c>
       <c r="K237" s="72">
-        <v>20.632999999999999</v>
+        <v>20.633000000000003</v>
       </c>
       <c r="L237" s="72">
-        <v>42.917000000000016</v>
+        <v>42.916999999999994</v>
       </c>
       <c r="M237" s="72">
         <v>142.47399999999999</v>
       </c>
       <c r="N237" s="72">
-        <v>63.550000000000011</v>
+        <v>63.55</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -18276,7 +18276,7 @@
         <v>34.408000000000001</v>
       </c>
       <c r="M238" s="72">
-        <v>29.142000000000003</v>
+        <v>29.141999999999999</v>
       </c>
       <c r="N238" s="72">
         <v>49.576000000000001</v>
@@ -18346,7 +18346,7 @@
         <v>70</v>
       </c>
       <c r="K240" s="72">
-        <v>32.022999999999996</v>
+        <v>32.023000000000003</v>
       </c>
       <c r="L240" s="72">
         <v>0</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="N240" s="72">
-        <v>32.022999999999996</v>
+        <v>32.023000000000003</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -18437,13 +18437,13 @@
         <v>148.09899999999999</v>
       </c>
       <c r="L242" s="72">
-        <v>37.435999999999979</v>
+        <v>37.436000000000007</v>
       </c>
       <c r="M242" s="72">
         <v>16.297000000000001</v>
       </c>
       <c r="N242" s="72">
-        <v>185.53499999999997</v>
+        <v>185.535</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -21717,13 +21717,13 @@
         <v>35.896000000000001</v>
       </c>
       <c r="L319" s="72">
-        <v>17.412000000000006</v>
+        <v>17.411999999999999</v>
       </c>
       <c r="M319" s="72">
         <v>0.51100000000000001</v>
       </c>
       <c r="N319" s="72">
-        <v>53.308000000000007</v>
+        <v>53.308</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -21764,7 +21764,7 @@
         <v>24.829999999999995</v>
       </c>
       <c r="M320" s="72">
-        <v>28.478000000000002</v>
+        <v>28.477999999999998</v>
       </c>
       <c r="N320" s="72">
         <v>56.179999999999993</v>
@@ -21849,13 +21849,13 @@
         <v>55.89</v>
       </c>
       <c r="L322" s="72">
-        <v>54.522999999999996</v>
+        <v>54.52300000000001</v>
       </c>
       <c r="M322" s="72">
         <v>47.752000000000002</v>
       </c>
       <c r="N322" s="72">
-        <v>110.413</v>
+        <v>110.41300000000001</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="M323" s="72">
-        <v>110.413</v>
+        <v>110.41300000000001</v>
       </c>
       <c r="N323" s="72">
         <v>0</v>
@@ -23062,16 +23062,16 @@
         <v>70</v>
       </c>
       <c r="K351" s="72">
-        <v>25.317</v>
+        <v>25.317000000000004</v>
       </c>
       <c r="L351" s="72">
-        <v>105.39200000000002</v>
+        <v>105.392</v>
       </c>
       <c r="M351" s="72">
         <v>48.914000000000001</v>
       </c>
       <c r="N351" s="72">
-        <v>130.70900000000003</v>
+        <v>130.709</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -23109,13 +23109,13 @@
         <v>25.515999999999998</v>
       </c>
       <c r="L352" s="72">
-        <v>84.070000000000022</v>
+        <v>84.07</v>
       </c>
       <c r="M352" s="72">
         <v>46.639000000000003</v>
       </c>
       <c r="N352" s="72">
-        <v>109.58600000000001</v>
+        <v>109.586</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="M353" s="72">
-        <v>109.58600000000001</v>
+        <v>109.586</v>
       </c>
       <c r="N353" s="72">
         <v>0</v>
@@ -23182,7 +23182,7 @@
         <v>70</v>
       </c>
       <c r="K354" s="72">
-        <v>104.878</v>
+        <v>104.87799999999999</v>
       </c>
       <c r="L354" s="72">
         <v>0</v>
@@ -23191,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="72">
-        <v>104.878</v>
+        <v>104.87799999999999</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -23229,13 +23229,13 @@
         <v>36.141999999999996</v>
       </c>
       <c r="L355" s="72">
-        <v>91.746000000000009</v>
+        <v>91.745999999999981</v>
       </c>
       <c r="M355" s="72">
         <v>13.132</v>
       </c>
       <c r="N355" s="72">
-        <v>127.88800000000001</v>
+        <v>127.88799999999998</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23270,10 +23270,10 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>52.033000000000001</v>
+        <v>52.033000000000008</v>
       </c>
       <c r="L356" s="72">
-        <v>83.361000000000004</v>
+        <v>83.36099999999999</v>
       </c>
       <c r="M356" s="72">
         <v>44.527000000000001</v>
@@ -24694,7 +24694,7 @@
         <v>70</v>
       </c>
       <c r="K390" s="72">
-        <v>135.22799999999998</v>
+        <v>135.22800000000001</v>
       </c>
       <c r="L390" s="72">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="N390" s="72">
-        <v>135.22799999999998</v>
+        <v>135.22800000000001</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
@@ -24738,13 +24738,13 @@
         <v>70</v>
       </c>
       <c r="K391" s="72">
-        <v>49.614999999999995</v>
+        <v>49.615000000000002</v>
       </c>
       <c r="L391" s="72">
-        <v>94.724000000000004</v>
+        <v>94.72399999999999</v>
       </c>
       <c r="M391" s="72">
-        <v>40.503999999999998</v>
+        <v>40.504000000000005</v>
       </c>
       <c r="N391" s="72">
         <v>144.339</v>
@@ -24870,10 +24870,10 @@
         <v>70</v>
       </c>
       <c r="K394" s="72">
-        <v>85.305999999999997</v>
+        <v>85.305999999999983</v>
       </c>
       <c r="L394" s="72">
-        <v>29.650999999999996</v>
+        <v>29.65100000000001</v>
       </c>
       <c r="M394" s="72">
         <v>20.189</v>
@@ -26253,13 +26253,13 @@
         <v>58.944000000000003</v>
       </c>
       <c r="L427" s="72">
-        <v>55.173999999999992</v>
+        <v>55.174000000000007</v>
       </c>
       <c r="M427" s="72">
         <v>18.172000000000001</v>
       </c>
       <c r="N427" s="72">
-        <v>114.11799999999999</v>
+        <v>114.11800000000001</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
@@ -26344,7 +26344,7 @@
         <v>24.423000000000002</v>
       </c>
       <c r="M429" s="72">
-        <v>224.77199999999999</v>
+        <v>224.77200000000005</v>
       </c>
       <c r="N429" s="72">
         <v>90.483000000000004</v>
@@ -26388,7 +26388,7 @@
         <v>64.728000000000009</v>
       </c>
       <c r="M430" s="72">
-        <v>25.755000000000003</v>
+        <v>25.754999999999999</v>
       </c>
       <c r="N430" s="72">
         <v>73.496000000000009</v>
@@ -27510,7 +27510,7 @@
         <v>70</v>
       </c>
       <c r="K457" s="72">
-        <v>26.059000000000001</v>
+        <v>26.058999999999997</v>
       </c>
       <c r="L457" s="72">
         <v>55.959000000000003</v>
@@ -27554,10 +27554,10 @@
         <v>70</v>
       </c>
       <c r="K458" s="72">
-        <v>73.927000000000007</v>
+        <v>73.926999999999992</v>
       </c>
       <c r="L458" s="72">
-        <v>44.584999999999994</v>
+        <v>44.585000000000008</v>
       </c>
       <c r="M458" s="72">
         <v>37.433000000000007</v>
@@ -27604,7 +27604,7 @@
         <v>86.157000000000011</v>
       </c>
       <c r="M459" s="72">
-        <v>32.355000000000004</v>
+        <v>32.354999999999997</v>
       </c>
       <c r="N459" s="72">
         <v>95.843000000000018</v>
@@ -27718,7 +27718,7 @@
         <v>70</v>
       </c>
       <c r="K462" s="72">
-        <v>73.599000000000018</v>
+        <v>73.59899999999999</v>
       </c>
       <c r="L462" s="72">
         <v>0</v>
@@ -27727,7 +27727,7 @@
         <v>0</v>
       </c>
       <c r="N462" s="72">
-        <v>73.599000000000018</v>
+        <v>73.59899999999999</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
@@ -29230,7 +29230,7 @@
         <v>70</v>
       </c>
       <c r="K498" s="72">
-        <v>112.42100000000001</v>
+        <v>112.42099999999999</v>
       </c>
       <c r="L498" s="72">
         <v>0</v>
@@ -29239,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="N498" s="72">
-        <v>112.42100000000001</v>
+        <v>112.42099999999999</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
@@ -29274,10 +29274,10 @@
         <v>70</v>
       </c>
       <c r="K499" s="72">
-        <v>29.092999999999996</v>
+        <v>29.093000000000004</v>
       </c>
       <c r="L499" s="72">
-        <v>37.188000000000009</v>
+        <v>37.188000000000002</v>
       </c>
       <c r="M499" s="72">
         <v>75.233000000000004</v>
@@ -29324,7 +29324,7 @@
         <v>38.065999999999988</v>
       </c>
       <c r="M500" s="72">
-        <v>28.215</v>
+        <v>28.214999999999996</v>
       </c>
       <c r="N500" s="72">
         <v>97.336999999999989</v>
@@ -29365,13 +29365,13 @@
         <v>14.123000000000001</v>
       </c>
       <c r="L501" s="72">
-        <v>62.981000000000009</v>
+        <v>62.98099999999998</v>
       </c>
       <c r="M501" s="72">
         <v>34.356000000000002</v>
       </c>
       <c r="N501" s="72">
-        <v>77.104000000000013</v>
+        <v>77.103999999999985</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
@@ -29412,7 +29412,7 @@
         <v>33.202999999999996</v>
       </c>
       <c r="M502" s="72">
-        <v>43.900999999999996</v>
+        <v>43.901000000000003</v>
       </c>
       <c r="N502" s="72">
         <v>41.832999999999998</v>
@@ -30742,16 +30742,16 @@
         <v>70</v>
       </c>
       <c r="K534" s="72">
-        <v>40.879000000000005</v>
+        <v>40.878999999999998</v>
       </c>
       <c r="L534" s="72">
-        <v>28.273999999999987</v>
+        <v>28.274000000000008</v>
       </c>
       <c r="M534" s="72">
         <v>7.5590000000000002</v>
       </c>
       <c r="N534" s="72">
-        <v>69.152999999999992</v>
+        <v>69.153000000000006</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
@@ -30786,10 +30786,10 @@
         <v>70</v>
       </c>
       <c r="K535" s="72">
-        <v>41.221999999999994</v>
+        <v>41.222000000000001</v>
       </c>
       <c r="L535" s="72">
-        <v>53.346000000000004</v>
+        <v>53.345999999999997</v>
       </c>
       <c r="M535" s="72">
         <v>15.807000000000002</v>
@@ -30833,13 +30833,13 @@
         <v>10.061</v>
       </c>
       <c r="L536" s="72">
-        <v>52.177999999999997</v>
+        <v>52.178000000000011</v>
       </c>
       <c r="M536" s="72">
         <v>42.39</v>
       </c>
       <c r="N536" s="72">
-        <v>62.238999999999997</v>
+        <v>62.239000000000011</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
@@ -31946,7 +31946,7 @@
         <v>70</v>
       </c>
       <c r="K563" s="72">
-        <v>79.355000000000004</v>
+        <v>79.35499999999999</v>
       </c>
       <c r="L563" s="72">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="N563" s="72">
-        <v>79.355000000000004</v>
+        <v>79.35499999999999</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.25">
@@ -31993,13 +31993,13 @@
         <v>45.368000000000002</v>
       </c>
       <c r="L564" s="72">
-        <v>40.599999999999987</v>
+        <v>40.6</v>
       </c>
       <c r="M564" s="72">
-        <v>38.755000000000003</v>
+        <v>38.754999999999995</v>
       </c>
       <c r="N564" s="72">
-        <v>85.967999999999989</v>
+        <v>85.968000000000004</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -33162,16 +33162,16 @@
         <v>70</v>
       </c>
       <c r="K592" s="72">
-        <v>27.090000000000003</v>
+        <v>27.09</v>
       </c>
       <c r="L592" s="72">
-        <v>72.114999999999981</v>
+        <v>72.114999999999995</v>
       </c>
       <c r="M592" s="72">
         <v>18.725999999999999</v>
       </c>
       <c r="N592" s="72">
-        <v>99.204999999999984</v>
+        <v>99.204999999999998</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
@@ -33206,13 +33206,13 @@
         <v>70</v>
       </c>
       <c r="K593" s="72">
-        <v>80.501999999999995</v>
+        <v>80.50200000000001</v>
       </c>
       <c r="L593" s="72">
-        <v>49.048999999999992</v>
+        <v>49.048999999999978</v>
       </c>
       <c r="M593" s="72">
-        <v>50.155999999999999</v>
+        <v>50.156000000000013</v>
       </c>
       <c r="N593" s="72">
         <v>129.55099999999999</v>
@@ -33282,7 +33282,7 @@
         <v>70</v>
       </c>
       <c r="K595" s="72">
-        <v>17.695999999999998</v>
+        <v>17.696000000000005</v>
       </c>
       <c r="L595" s="72">
         <v>0</v>
@@ -33291,7 +33291,7 @@
         <v>0</v>
       </c>
       <c r="N595" s="72">
-        <v>17.695999999999998</v>
+        <v>17.696000000000005</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.25">
@@ -33326,10 +33326,10 @@
         <v>70</v>
       </c>
       <c r="K596" s="72">
-        <v>34.521999999999998</v>
+        <v>34.522000000000006</v>
       </c>
       <c r="L596" s="72">
-        <v>11.968000000000004</v>
+        <v>11.967999999999996</v>
       </c>
       <c r="M596" s="72">
         <v>5.7279999999999998</v>
@@ -33373,13 +33373,13 @@
         <v>38.576999999999998</v>
       </c>
       <c r="L597" s="72">
-        <v>37.054000000000016</v>
+        <v>37.054000000000002</v>
       </c>
       <c r="M597" s="72">
         <v>9.4359999999999999</v>
       </c>
       <c r="N597" s="72">
-        <v>75.631000000000014</v>
+        <v>75.631</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
@@ -34985,13 +34985,13 @@
         <v>26.981000000000002</v>
       </c>
       <c r="L635" s="72">
-        <v>15.647000000000006</v>
+        <v>15.646999999999998</v>
       </c>
       <c r="M635" s="72">
         <v>17.431000000000001</v>
       </c>
       <c r="N635" s="72">
-        <v>42.628000000000007</v>
+        <v>42.628</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="M636" s="72">
-        <v>42.628000000000007</v>
+        <v>42.628</v>
       </c>
       <c r="N636" s="72">
         <v>0</v>
@@ -35102,10 +35102,10 @@
         <v>70</v>
       </c>
       <c r="K638" s="72">
-        <v>50.915999999999997</v>
+        <v>50.916000000000004</v>
       </c>
       <c r="L638" s="72">
-        <v>20.88900000000001</v>
+        <v>20.889000000000003</v>
       </c>
       <c r="M638" s="72">
         <v>33.197000000000003</v>
@@ -35149,13 +35149,13 @@
         <v>33.385000000000005</v>
       </c>
       <c r="L639" s="72">
-        <v>69.251999999999995</v>
+        <v>69.251999999999981</v>
       </c>
       <c r="M639" s="72">
         <v>2.5529999999999999</v>
       </c>
       <c r="N639" s="72">
-        <v>102.637</v>
+        <v>102.63699999999999</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -35193,13 +35193,13 @@
         <v>6.9750000000000005</v>
       </c>
       <c r="L640" s="72">
-        <v>30.646999999999991</v>
+        <v>30.646999999999998</v>
       </c>
       <c r="M640" s="72">
         <v>71.989999999999995</v>
       </c>
       <c r="N640" s="72">
-        <v>37.621999999999993</v>
+        <v>37.622</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.25">
@@ -36790,7 +36790,7 @@
         <v>70</v>
       </c>
       <c r="K678" s="72">
-        <v>46.875000000000007</v>
+        <v>46.875</v>
       </c>
       <c r="L678" s="72">
         <v>0</v>
@@ -36799,7 +36799,7 @@
         <v>0</v>
       </c>
       <c r="N678" s="72">
-        <v>46.875000000000007</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.25">
@@ -36878,16 +36878,16 @@
         <v>70</v>
       </c>
       <c r="K680" s="72">
-        <v>24.833000000000002</v>
+        <v>24.833000000000006</v>
       </c>
       <c r="L680" s="72">
         <v>66.613</v>
       </c>
       <c r="M680" s="72">
-        <v>26.209000000000003</v>
+        <v>26.208999999999996</v>
       </c>
       <c r="N680" s="72">
-        <v>91.445999999999998</v>
+        <v>91.446000000000012</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.25">
@@ -36925,13 +36925,13 @@
         <v>78.284999999999997</v>
       </c>
       <c r="L681" s="72">
-        <v>32.684000000000012</v>
+        <v>32.683999999999997</v>
       </c>
       <c r="M681" s="72">
-        <v>58.762000000000008</v>
+        <v>58.762</v>
       </c>
       <c r="N681" s="72">
-        <v>110.96900000000001</v>
+        <v>110.96899999999999</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.25">
@@ -36969,13 +36969,13 @@
         <v>25.331000000000003</v>
       </c>
       <c r="L682" s="72">
-        <v>48.564999999999998</v>
+        <v>48.565000000000012</v>
       </c>
       <c r="M682" s="72">
-        <v>62.404000000000011</v>
+        <v>62.404000000000003</v>
       </c>
       <c r="N682" s="72">
-        <v>73.896000000000001</v>
+        <v>73.896000000000015</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.25">
@@ -37013,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="M683" s="72">
-        <v>73.896000000000001</v>
+        <v>73.896000000000015</v>
       </c>
       <c r="N683" s="72">
         <v>0</v>
@@ -38302,7 +38302,7 @@
         <v>70</v>
       </c>
       <c r="K714" s="72">
-        <v>138.53700000000001</v>
+        <v>138.53700000000003</v>
       </c>
       <c r="L714" s="72">
         <v>0</v>
@@ -38311,7 +38311,7 @@
         <v>0</v>
       </c>
       <c r="N714" s="72">
-        <v>138.53700000000001</v>
+        <v>138.53700000000003</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.25">
@@ -38346,16 +38346,16 @@
         <v>70</v>
       </c>
       <c r="K715" s="72">
-        <v>86.027999999999992</v>
+        <v>86.028000000000006</v>
       </c>
       <c r="L715" s="72">
-        <v>107.822</v>
+        <v>107.82200000000002</v>
       </c>
       <c r="M715" s="72">
         <v>30.715</v>
       </c>
       <c r="N715" s="72">
-        <v>193.85</v>
+        <v>193.85000000000002</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.25">
@@ -38396,7 +38396,7 @@
         <v>41.481999999999999</v>
       </c>
       <c r="M716" s="72">
-        <v>152.36800000000005</v>
+        <v>152.36799999999999</v>
       </c>
       <c r="N716" s="72">
         <v>62.792000000000002</v>
@@ -38437,13 +38437,13 @@
         <v>10.172000000000001</v>
       </c>
       <c r="L717" s="72">
-        <v>44.402999999999992</v>
+        <v>44.403000000000006</v>
       </c>
       <c r="M717" s="72">
-        <v>18.389000000000003</v>
+        <v>18.388999999999996</v>
       </c>
       <c r="N717" s="72">
-        <v>54.574999999999996</v>
+        <v>54.575000000000003</v>
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.25">
@@ -38478,13 +38478,13 @@
         <v>70</v>
       </c>
       <c r="K718" s="72">
-        <v>16.016000000000002</v>
+        <v>16.015999999999998</v>
       </c>
       <c r="L718" s="72">
-        <v>16.907</v>
+        <v>16.907000000000004</v>
       </c>
       <c r="M718" s="72">
-        <v>37.667999999999999</v>
+        <v>37.668000000000006</v>
       </c>
       <c r="N718" s="72">
         <v>32.923000000000002</v>
@@ -39814,7 +39814,7 @@
         <v>70</v>
       </c>
       <c r="K750" s="72">
-        <v>90.140999999999991</v>
+        <v>90.141000000000005</v>
       </c>
       <c r="L750" s="72">
         <v>0</v>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
       <c r="N750" s="72">
-        <v>90.140999999999991</v>
+        <v>90.141000000000005</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.25">
@@ -39858,10 +39858,10 @@
         <v>70</v>
       </c>
       <c r="K751" s="72">
-        <v>114.902</v>
+        <v>114.90199999999999</v>
       </c>
       <c r="L751" s="72">
-        <v>72.174999999999997</v>
+        <v>72.175000000000011</v>
       </c>
       <c r="M751" s="72">
         <v>17.966000000000001</v>
@@ -39902,10 +39902,10 @@
         <v>70</v>
       </c>
       <c r="K752" s="72">
-        <v>46.289999999999992</v>
+        <v>46.290000000000006</v>
       </c>
       <c r="L752" s="72">
-        <v>76.445000000000022</v>
+        <v>76.445000000000007</v>
       </c>
       <c r="M752" s="72">
         <v>110.63200000000001</v>
@@ -39949,13 +39949,13 @@
         <v>16.440999999999999</v>
       </c>
       <c r="L753" s="72">
-        <v>55.03</v>
+        <v>55.029999999999987</v>
       </c>
       <c r="M753" s="72">
         <v>67.704999999999998</v>
       </c>
       <c r="N753" s="72">
-        <v>71.471000000000004</v>
+        <v>71.470999999999989</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.25">
@@ -41250,7 +41250,7 @@
         <v>70</v>
       </c>
       <c r="K784" s="72">
-        <v>17.041</v>
+        <v>17.040999999999997</v>
       </c>
       <c r="L784" s="72">
         <v>94.695999999999998</v>
@@ -41370,10 +41370,10 @@
         <v>70</v>
       </c>
       <c r="K787" s="72">
-        <v>67.598000000000013</v>
+        <v>67.597999999999999</v>
       </c>
       <c r="L787" s="72">
-        <v>34.911000000000001</v>
+        <v>34.911000000000016</v>
       </c>
       <c r="M787" s="72">
         <v>8.3789999999999996</v>
@@ -41417,13 +41417,13 @@
         <v>116.21299999999999</v>
       </c>
       <c r="L788" s="72">
-        <v>80.896000000000043</v>
+        <v>80.896000000000015</v>
       </c>
       <c r="M788" s="72">
         <v>21.613</v>
       </c>
       <c r="N788" s="72">
-        <v>197.10900000000004</v>
+        <v>197.10900000000001</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -42882,7 +42882,7 @@
         <v>70</v>
       </c>
       <c r="K823" s="72">
-        <v>78.416000000000011</v>
+        <v>78.415999999999997</v>
       </c>
       <c r="L823" s="72">
         <v>37.801000000000002</v>
@@ -42891,7 +42891,7 @@
         <v>7.5839999999999996</v>
       </c>
       <c r="N823" s="72">
-        <v>116.21700000000001</v>
+        <v>116.217</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42932,7 +42932,7 @@
         <v>95.402000000000001</v>
       </c>
       <c r="M824" s="72">
-        <v>20.814999999999998</v>
+        <v>20.815000000000005</v>
       </c>
       <c r="N824" s="72">
         <v>115.869</v>
@@ -42970,13 +42970,13 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>36.686</v>
+        <v>36.686000000000007</v>
       </c>
       <c r="L825" s="72">
-        <v>33.455999999999996</v>
+        <v>33.455999999999989</v>
       </c>
       <c r="M825" s="72">
-        <v>82.413000000000011</v>
+        <v>82.412999999999997</v>
       </c>
       <c r="N825" s="72">
         <v>70.141999999999996</v>
@@ -44394,16 +44394,16 @@
         <v>70</v>
       </c>
       <c r="K859" s="72">
-        <v>23.224000000000004</v>
+        <v>23.224</v>
       </c>
       <c r="L859" s="72">
-        <v>46.870000000000005</v>
+        <v>46.86999999999999</v>
       </c>
       <c r="M859" s="72">
         <v>13.093</v>
       </c>
       <c r="N859" s="72">
-        <v>70.094000000000008</v>
+        <v>70.093999999999994</v>
       </c>
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.25">
@@ -44482,10 +44482,10 @@
         <v>70</v>
       </c>
       <c r="K861" s="72">
-        <v>19.113999999999997</v>
+        <v>19.114000000000004</v>
       </c>
       <c r="L861" s="72">
-        <v>32.94400000000001</v>
+        <v>32.944000000000003</v>
       </c>
       <c r="M861" s="72">
         <v>13.370999999999999</v>
@@ -44532,7 +44532,7 @@
         <v>19.282999999999998</v>
       </c>
       <c r="M862" s="72">
-        <v>32.774999999999999</v>
+        <v>32.775000000000006</v>
       </c>
       <c r="N862" s="72">
         <v>28.396999999999998</v>
@@ -46082,16 +46082,16 @@
         <v>70</v>
       </c>
       <c r="K899" s="72">
-        <v>36.103000000000009</v>
+        <v>36.103000000000002</v>
       </c>
       <c r="L899" s="72">
-        <v>87.385000000000005</v>
+        <v>87.384999999999991</v>
       </c>
       <c r="M899" s="72">
         <v>28.583000000000002</v>
       </c>
       <c r="N899" s="72">
-        <v>123.48800000000001</v>
+        <v>123.488</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
@@ -46126,13 +46126,13 @@
         <v>70</v>
       </c>
       <c r="K900" s="72">
-        <v>31.988</v>
+        <v>31.988000000000003</v>
       </c>
       <c r="L900" s="72">
         <v>105.97800000000001</v>
       </c>
       <c r="M900" s="72">
-        <v>17.510000000000002</v>
+        <v>17.509999999999998</v>
       </c>
       <c r="N900" s="72">
         <v>137.96600000000001</v>
@@ -46217,13 +46217,13 @@
         <v>19.840000000000003</v>
       </c>
       <c r="L902" s="72">
-        <v>75.260000000000005</v>
+        <v>75.259999999999991</v>
       </c>
       <c r="M902" s="72">
         <v>31.795000000000002</v>
       </c>
       <c r="N902" s="72">
-        <v>95.100000000000009</v>
+        <v>95.1</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
@@ -46261,7 +46261,7 @@
         <v>0</v>
       </c>
       <c r="M903" s="72">
-        <v>95.100000000000009</v>
+        <v>95.1</v>
       </c>
       <c r="N903" s="72">
         <v>0</v>
@@ -47990,7 +47990,7 @@
         <v>70</v>
       </c>
       <c r="K944" s="72">
-        <v>37.799999999999997</v>
+        <v>37.79999999999999</v>
       </c>
       <c r="L944" s="72">
         <v>0</v>
@@ -47999,7 +47999,7 @@
         <v>0</v>
       </c>
       <c r="N944" s="72">
-        <v>37.799999999999997</v>
+        <v>37.79999999999999</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.25">
@@ -48122,10 +48122,10 @@
         <v>70</v>
       </c>
       <c r="K947" s="72">
-        <v>31.665000000000006</v>
+        <v>31.664999999999999</v>
       </c>
       <c r="L947" s="72">
-        <v>98.423999999999992</v>
+        <v>98.424000000000007</v>
       </c>
       <c r="M947" s="72">
         <v>11.716999999999999</v>
@@ -48175,7 +48175,7 @@
         <v>95.306000000000012</v>
       </c>
       <c r="N948" s="72">
-        <v>47.394000000000005</v>
+        <v>47.393999999999998</v>
       </c>
     </row>
     <row r="949" spans="1:14" x14ac:dyDescent="0.25">
@@ -49869,7 +49869,7 @@
         <v>0</v>
       </c>
       <c r="M988" s="72">
-        <v>100.29500000000002</v>
+        <v>100.29499999999999</v>
       </c>
       <c r="N988" s="72">
         <v>0</v>
@@ -49942,16 +49942,16 @@
         <v>70</v>
       </c>
       <c r="K990" s="72">
-        <v>40.48899999999999</v>
+        <v>40.488999999999997</v>
       </c>
       <c r="L990" s="72">
-        <v>20.361000000000011</v>
+        <v>20.360999999999997</v>
       </c>
       <c r="M990" s="72">
         <v>1.2549999999999999</v>
       </c>
       <c r="N990" s="72">
-        <v>60.85</v>
+        <v>60.849999999999994</v>
       </c>
     </row>
     <row r="991" spans="1:14" x14ac:dyDescent="0.25">
@@ -50033,13 +50033,13 @@
         <v>38.460999999999999</v>
       </c>
       <c r="L992" s="72">
-        <v>48.783999999999992</v>
+        <v>48.784000000000006</v>
       </c>
       <c r="M992" s="72">
-        <v>35.626999999999995</v>
+        <v>35.627000000000002</v>
       </c>
       <c r="N992" s="72">
-        <v>87.24499999999999</v>
+        <v>87.245000000000005</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.25">
@@ -51193,13 +51193,13 @@
         <v>151.536</v>
       </c>
       <c r="L1020" s="72">
-        <v>70.632999999999981</v>
+        <v>70.63300000000001</v>
       </c>
       <c r="M1020" s="72">
         <v>53.724000000000004</v>
       </c>
       <c r="N1020" s="72">
-        <v>222.16899999999998</v>
+        <v>222.16900000000001</v>
       </c>
     </row>
     <row r="1021" spans="1:14" x14ac:dyDescent="0.25">
@@ -51281,13 +51281,13 @@
         <v>1.609</v>
       </c>
       <c r="L1022" s="72">
-        <v>24.601999999999997</v>
+        <v>24.602000000000004</v>
       </c>
       <c r="M1022" s="72">
         <v>140.35000000000002</v>
       </c>
       <c r="N1022" s="72">
-        <v>26.210999999999999</v>
+        <v>26.211000000000002</v>
       </c>
     </row>
     <row r="1023" spans="1:14" x14ac:dyDescent="0.25">
@@ -51325,7 +51325,7 @@
         <v>0</v>
       </c>
       <c r="M1023" s="72">
-        <v>26.210999999999999</v>
+        <v>26.211000000000002</v>
       </c>
       <c r="N1023" s="72">
         <v>0</v>
@@ -52318,16 +52318,16 @@
         <v>70</v>
       </c>
       <c r="K1047" s="72">
-        <v>23.081</v>
+        <v>23.080999999999996</v>
       </c>
       <c r="L1047" s="72">
-        <v>32.36</v>
+        <v>32.359999999999992</v>
       </c>
       <c r="M1047" s="72">
-        <v>39.807000000000002</v>
+        <v>39.806999999999995</v>
       </c>
       <c r="N1047" s="72">
-        <v>55.441000000000003</v>
+        <v>55.440999999999988</v>
       </c>
     </row>
     <row r="1048" spans="1:14" x14ac:dyDescent="0.25">
@@ -52365,7 +52365,7 @@
         <v>0</v>
       </c>
       <c r="M1048" s="72">
-        <v>55.441000000000003</v>
+        <v>55.440999999999988</v>
       </c>
       <c r="N1048" s="72">
         <v>0</v>
@@ -52438,10 +52438,10 @@
         <v>70</v>
       </c>
       <c r="K1050" s="72">
-        <v>37.780999999999992</v>
+        <v>37.780999999999999</v>
       </c>
       <c r="L1050" s="72">
-        <v>24.590000000000003</v>
+        <v>24.589999999999996</v>
       </c>
       <c r="M1050" s="72">
         <v>9.0240000000000009</v>
@@ -52485,13 +52485,13 @@
         <v>38.227000000000004</v>
       </c>
       <c r="L1051" s="72">
-        <v>23.963000000000001</v>
+        <v>23.962999999999994</v>
       </c>
       <c r="M1051" s="72">
         <v>38.408000000000001</v>
       </c>
       <c r="N1051" s="72">
-        <v>62.190000000000005</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.25">
@@ -53730,16 +53730,16 @@
         <v>70</v>
       </c>
       <c r="K1081" s="72">
-        <v>71.289000000000016</v>
+        <v>71.289000000000001</v>
       </c>
       <c r="L1081" s="72">
         <v>29.060999999999993</v>
       </c>
       <c r="M1081" s="72">
-        <v>33.308</v>
+        <v>33.307999999999993</v>
       </c>
       <c r="N1081" s="72">
-        <v>100.35000000000001</v>
+        <v>100.35</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.25">
@@ -54937,13 +54937,13 @@
         <v>46.795000000000002</v>
       </c>
       <c r="L1110" s="72">
-        <v>152.79599999999999</v>
+        <v>152.79600000000005</v>
       </c>
       <c r="M1110" s="72">
         <v>2.3839999999999999</v>
       </c>
       <c r="N1110" s="72">
-        <v>199.59100000000001</v>
+        <v>199.59100000000004</v>
       </c>
     </row>
     <row r="1111" spans="1:14" x14ac:dyDescent="0.25">
@@ -54984,7 +54984,7 @@
         <v>143.15200000000002</v>
       </c>
       <c r="M1111" s="72">
-        <v>56.438999999999993</v>
+        <v>56.439000000000007</v>
       </c>
       <c r="N1111" s="72">
         <v>233.92700000000002</v>
@@ -59929,13 +59929,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>66.970250000000036</v>
+        <v>66.970250000000007</v>
       </c>
       <c r="H6" s="72">
         <v>140</v>
       </c>
       <c r="I6" s="76">
-        <v>0.47835892857142881</v>
+        <v>0.47835892857142864</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -59958,13 +59958,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>58.364500000000014</v>
+        <v>58.364500000000007</v>
       </c>
       <c r="H7" s="72">
         <v>140</v>
       </c>
       <c r="I7" s="76">
-        <v>0.4168892857142858</v>
+        <v>0.41688928571428574</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -59987,13 +59987,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>253.76124999999996</v>
+        <v>253.7612499999999</v>
       </c>
       <c r="H8" s="72">
         <v>210</v>
       </c>
       <c r="I8" s="76">
-        <v>1.2083869047619045</v>
+        <v>1.2083869047619042</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -60016,13 +60016,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>51.158000000000001</v>
+        <v>51.158000000000015</v>
       </c>
       <c r="H9" s="72">
         <v>210</v>
       </c>
       <c r="I9" s="76">
-        <v>0.2436095238095238</v>
+        <v>0.24360952380952389</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -60045,13 +60045,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>56.98900000000004</v>
+        <v>56.989000000000004</v>
       </c>
       <c r="H10" s="72">
         <v>140</v>
       </c>
       <c r="I10" s="76">
-        <v>0.40706428571428599</v>
+        <v>0.40706428571428577</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -60103,13 +60103,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>8.9357500000000005</v>
+        <v>8.9357499999999987</v>
       </c>
       <c r="H12" s="72">
         <v>70</v>
       </c>
       <c r="I12" s="76">
-        <v>0.12765357142857145</v>
+        <v>0.12765357142857142</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -60132,13 +60132,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="72">
-        <v>16.88175</v>
+        <v>16.881749999999997</v>
       </c>
       <c r="H13" s="72">
         <v>70</v>
       </c>
       <c r="I13" s="76">
-        <v>0.24116785714285716</v>
+        <v>0.2411678571428571</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -60161,13 +60161,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>55.274000000000008</v>
+        <v>55.274000000000029</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.39481428571428578</v>
+        <v>0.39481428571428595</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -60190,13 +60190,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>58.359500000000004</v>
+        <v>58.359500000000011</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.41685357142857143</v>
+        <v>0.41685357142857149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -60219,13 +60219,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>108.06774999999999</v>
+        <v>108.06775000000002</v>
       </c>
       <c r="H16" s="72">
         <v>140</v>
       </c>
       <c r="I16" s="76">
-        <v>0.77191249999999989</v>
+        <v>0.77191250000000011</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -60248,13 +60248,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>59.419500000000021</v>
+        <v>59.419500000000006</v>
       </c>
       <c r="H17" s="72">
         <v>140</v>
       </c>
       <c r="I17" s="76">
-        <v>0.42442500000000016</v>
+        <v>0.42442500000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -60277,13 +60277,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.511500000000005</v>
+        <v>40.511500000000012</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.57873571428571435</v>
+        <v>0.57873571428571446</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -60306,13 +60306,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>36.900249999999986</v>
+        <v>36.90025</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.52714642857142835</v>
+        <v>0.52714642857142857</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -60364,13 +60364,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>17.448249999999998</v>
+        <v>17.448250000000002</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.24926071428571425</v>
+        <v>0.24926071428571431</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -60422,13 +60422,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="72">
-        <v>21.740250000000003</v>
+        <v>21.740249999999996</v>
       </c>
       <c r="H23" s="72">
         <v>70</v>
       </c>
       <c r="I23" s="76">
-        <v>0.31057500000000005</v>
+        <v>0.31057499999999993</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -60451,13 +60451,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>101.38174999999998</v>
+        <v>101.38174999999997</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>1.4483107142857141</v>
+        <v>1.4483107142857139</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -60509,13 +60509,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>203.25500000000005</v>
+        <v>203.25499999999988</v>
       </c>
       <c r="H26" s="72">
         <v>210</v>
       </c>
       <c r="I26" s="76">
-        <v>0.96788095238095262</v>
+        <v>0.96788095238095184</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -60567,13 +60567,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>118.25075000000001</v>
+        <v>118.25074999999998</v>
       </c>
       <c r="H28" s="72">
         <v>70</v>
       </c>
       <c r="I28" s="76">
-        <v>1.6892964285714287</v>
+        <v>1.6892964285714283</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -60596,13 +60596,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>57.748750000000015</v>
+        <v>57.748750000000001</v>
       </c>
       <c r="H29" s="72">
         <v>70</v>
       </c>
       <c r="I29" s="76">
-        <v>0.82498214285714311</v>
+        <v>0.82498214285714289</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -60625,13 +60625,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>91.172499999999957</v>
+        <v>91.172499999999999</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.65123214285714259</v>
+        <v>0.65123214285714282</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -60654,7 +60654,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>50.268749999999997</v>
+        <v>50.268750000000004</v>
       </c>
       <c r="H31" s="72">
         <v>140</v>
@@ -60683,13 +60683,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>91.134750000000025</v>
+        <v>91.134750000000011</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.65096250000000022</v>
+        <v>0.65096250000000011</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -60712,13 +60712,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>88.755250000000018</v>
+        <v>88.755250000000004</v>
       </c>
       <c r="H33" s="72">
         <v>140</v>
       </c>
       <c r="I33" s="76">
-        <v>0.63396607142857153</v>
+        <v>0.63396607142857142</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -60741,13 +60741,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>281.62075000000004</v>
+        <v>281.62074999999987</v>
       </c>
       <c r="H34" s="72">
         <v>210</v>
       </c>
       <c r="I34" s="76">
-        <v>1.3410511904761906</v>
+        <v>1.3410511904761899</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -60770,13 +60770,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>123.05425000000001</v>
+        <v>123.05425</v>
       </c>
       <c r="H35" s="72">
         <v>210</v>
       </c>
       <c r="I35" s="76">
-        <v>0.5859726190476191</v>
+        <v>0.58597261904761899</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -60828,13 +60828,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>51.504999999999981</v>
+        <v>51.505000000000003</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.73578571428571404</v>
+        <v>0.73578571428571438</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -60915,13 +60915,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>93.895250000000033</v>
+        <v>93.895250000000047</v>
       </c>
       <c r="H40" s="72">
         <v>140</v>
       </c>
       <c r="I40" s="76">
-        <v>0.67068035714285734</v>
+        <v>0.67068035714285745</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -60944,13 +60944,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>51.773499999999999</v>
+        <v>51.77350000000002</v>
       </c>
       <c r="H41" s="72">
         <v>140</v>
       </c>
       <c r="I41" s="76">
-        <v>0.36981071428571427</v>
+        <v>0.36981071428571444</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -60973,13 +60973,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>299.93425000000002</v>
+        <v>299.93424999999991</v>
       </c>
       <c r="H42" s="72">
         <v>280</v>
       </c>
       <c r="I42" s="76">
-        <v>1.0711937500000002</v>
+        <v>1.0711937499999997</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -61002,13 +61002,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>112.71825000000003</v>
+        <v>112.71825000000004</v>
       </c>
       <c r="H43" s="72">
         <v>280</v>
       </c>
       <c r="I43" s="76">
-        <v>0.40256517857142865</v>
+        <v>0.40256517857142871</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -61031,13 +61031,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>38.091750000000005</v>
+        <v>38.091749999999998</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.5441678571428572</v>
+        <v>0.54416785714285709</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -61060,13 +61060,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>53.660249999999984</v>
+        <v>53.660250000000012</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.76657499999999978</v>
+        <v>0.76657500000000012</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -61089,13 +61089,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>445.88049999999987</v>
+        <v>445.88049999999953</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>1.0616202380952378</v>
+        <v>1.0616202380952369</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -61118,13 +61118,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>196.64675000000005</v>
+        <v>196.64675000000003</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.46820654761904773</v>
+        <v>0.46820654761904767</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -61147,13 +61147,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>74.981499999999997</v>
+        <v>74.981500000000025</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.53558214285714278</v>
+        <v>0.53558214285714301</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -61176,13 +61176,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>112.33075000000005</v>
+        <v>112.33074999999999</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.80236250000000042</v>
+        <v>0.80236249999999998</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -61205,13 +61205,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>196.73250000000002</v>
+        <v>196.73250000000004</v>
       </c>
       <c r="H50" s="72">
         <v>350</v>
       </c>
       <c r="I50" s="76">
-        <v>0.56209285714285717</v>
+        <v>0.56209285714285728</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -61234,13 +61234,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>285.31324999999993</v>
+        <v>285.31324999999998</v>
       </c>
       <c r="H51" s="72">
         <v>350</v>
       </c>
       <c r="I51" s="76">
-        <v>0.81518071428571404</v>
+        <v>0.81518071428571426</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -61263,13 +61263,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>141.14800000000002</v>
+        <v>141.14800000000005</v>
       </c>
       <c r="H52" s="72">
         <v>210</v>
       </c>
       <c r="I52" s="76">
-        <v>0.67213333333333347</v>
+        <v>0.67213333333333358</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -61292,7 +61292,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>251.16750000000002</v>
+        <v>251.16749999999999</v>
       </c>
       <c r="H53" s="72">
         <v>210</v>
@@ -61321,13 +61321,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>68.066249999999997</v>
+        <v>68.066250000000025</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.324125</v>
+        <v>0.32412500000000011</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -61350,13 +61350,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>89.575250000000011</v>
+        <v>89.575249999999997</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.42654880952380958</v>
+        <v>0.42654880952380952</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -61379,13 +61379,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>97.636750000000021</v>
+        <v>97.636749999999935</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
       </c>
       <c r="I56" s="76">
-        <v>0.69740535714285734</v>
+        <v>0.69740535714285667</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -61408,13 +61408,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>86.422750000000008</v>
+        <v>86.422749999999994</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.61730535714285717</v>
+        <v>0.61730535714285706</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -61437,13 +61437,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="72">
-        <v>80.47750000000002</v>
+        <v>80.477500000000006</v>
       </c>
       <c r="H58" s="72">
         <v>140</v>
       </c>
       <c r="I58" s="76">
-        <v>0.57483928571428589</v>
+        <v>0.57483928571428577</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -61553,7 +61553,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>40.497499999999995</v>
+        <v>40.497500000000002</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
@@ -61582,13 +61582,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>38.133249999999997</v>
+        <v>38.133250000000004</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.54476071428571426</v>
+        <v>0.54476071428571438</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -61611,13 +61611,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>119.65300000000006</v>
+        <v>119.65300000000001</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.56977619047619077</v>
+        <v>0.56977619047619055</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -61640,13 +61640,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>122.08075000000001</v>
+        <v>122.08075000000004</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.5813369047619048</v>
+        <v>0.58133690476190492</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -61669,13 +61669,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>54.552250000000008</v>
+        <v>54.552250000000001</v>
       </c>
       <c r="H66" s="72">
         <v>70</v>
       </c>
       <c r="I66" s="76">
-        <v>0.77931785714285728</v>
+        <v>0.77931785714285717</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -61814,13 +61814,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>68.393000000000001</v>
+        <v>68.393000000000015</v>
       </c>
       <c r="H71" s="72">
         <v>70</v>
       </c>
       <c r="I71" s="76">
-        <v>0.9770428571428571</v>
+        <v>0.97704285714285732</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -61843,13 +61843,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>67.72050000000003</v>
+        <v>67.720499999999987</v>
       </c>
       <c r="H72" s="72">
         <v>140</v>
       </c>
       <c r="I72" s="76">
-        <v>0.48371785714285737</v>
+        <v>0.48371785714285703</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -61930,13 +61930,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>56.917499999999976</v>
+        <v>56.91749999999999</v>
       </c>
       <c r="H75" s="72">
         <v>140</v>
       </c>
       <c r="I75" s="76">
-        <v>0.40655357142857124</v>
+        <v>0.40655357142857135</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -61959,13 +61959,13 @@
         <v>0</v>
       </c>
       <c r="G76" s="72">
-        <v>82.286500000000018</v>
+        <v>82.286500000000004</v>
       </c>
       <c r="H76" s="72">
         <v>140</v>
       </c>
       <c r="I76" s="76">
-        <v>0.58776071428571441</v>
+        <v>0.5877607142857143</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -61988,13 +61988,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="72">
-        <v>25.575749999999999</v>
+        <v>25.575750000000003</v>
       </c>
       <c r="H77" s="72">
         <v>140</v>
       </c>
       <c r="I77" s="76">
-        <v>0.18268392857142857</v>
+        <v>0.18268392857142859</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -62017,13 +62017,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>46.492000000000004</v>
+        <v>46.492000000000012</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.66417142857142863</v>
+        <v>0.66417142857142875</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -62046,13 +62046,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>25.540000000000006</v>
+        <v>25.539999999999996</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.36485714285714294</v>
+        <v>0.36485714285714277</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -62075,13 +62075,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>94.945250000000001</v>
+        <v>94.945249999999987</v>
       </c>
       <c r="H80" s="72">
         <v>70</v>
       </c>
       <c r="I80" s="76">
-        <v>1.3563607142857144</v>
+        <v>1.3563607142857141</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -62104,13 +62104,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>43.024749999999997</v>
+        <v>43.024750000000004</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>0.61463928571428572</v>
+        <v>0.61463928571428583</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -62162,13 +62162,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>30.75</v>
+        <v>30.750000000000004</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.43928571428571428</v>
+        <v>0.43928571428571433</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -62191,13 +62191,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>102.81325000000001</v>
+        <v>102.81325</v>
       </c>
       <c r="H84" s="72">
         <v>140</v>
       </c>
       <c r="I84" s="76">
-        <v>0.73438035714285721</v>
+        <v>0.7343803571428571</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -62220,13 +62220,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>31.824749999999998</v>
+        <v>31.824750000000002</v>
       </c>
       <c r="H85" s="72">
         <v>140</v>
       </c>
       <c r="I85" s="76">
-        <v>0.22731964285714285</v>
+        <v>0.22731964285714287</v>
       </c>
     </row>
   </sheetData>
